--- a/results/vindta.xlsx
+++ b/results/vindta.xlsx
@@ -763,7 +763,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JUNK-230711-2</t>
+          <t>JUNK-230711-1</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -800,27 +800,29 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>18.8</v>
+        <v>0.5</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>154</v>
+      </c>
       <c r="V2" t="n">
-        <v>2362.41</v>
+        <v>1384.84</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>0.000419</v>
+        <v>0.000888</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
@@ -832,7 +834,7 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="n">
@@ -843,33 +845,33 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>07/11/23</t>
+          <t>05/02/05</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>21:18</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>C_Mar30-21_0803</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ2" s="2" t="n">
-        <v>45118.45972222222</v>
+        <v>38474.8875</v>
       </c>
       <c r="AK2" t="n">
-        <v>19549.45972222222</v>
+        <v>12905.8875</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230711-2.dat</t>
+          <t>0-0  0  (0)JUNK-230711-1.dat</t>
         </is>
       </c>
       <c r="AM2" t="n">
@@ -888,7 +890,7 @@
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT2" t="n">
@@ -901,7 +903,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.1024905440021221</v>
+        <v>0.1021832377871398</v>
       </c>
       <c r="AX2" t="b">
         <v>1</v>
@@ -914,31 +916,31 @@
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC2" t="n">
-        <v>2330.243121813092</v>
+        <v>1368.193642590669</v>
       </c>
       <c r="BD2" t="n">
-        <v>626.8897059888659</v>
+        <v>627.0711553480355</v>
       </c>
       <c r="BE2" t="n">
-        <v>2331.447858280764</v>
+        <v>1380.32332640737</v>
       </c>
       <c r="BF2" t="n">
-        <v>2.549386666302247</v>
+        <v>3.432642654938912</v>
       </c>
       <c r="BG2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH2" t="n">
-        <v>630.6301899906701</v>
+        <v>633.80252078134</v>
       </c>
       <c r="BI2" t="n">
-        <v>7.971774619930533</v>
+        <v>8.090903210961246</v>
       </c>
       <c r="BJ2" t="n">
-        <v>12.688</v>
+        <v>25</v>
       </c>
       <c r="BK2" t="inlineStr"/>
     </row>
@@ -956,7 +958,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>JUNK-230711-3</t>
+          <t>JUNK-230711-2</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -993,27 +995,29 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>18.8</v>
+        <v>0.5</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>154</v>
+      </c>
       <c r="V3" t="n">
-        <v>2350.64</v>
+        <v>2366.7</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>0.000138</v>
+        <v>9.6e-05</v>
       </c>
       <c r="Y3" t="n">
         <v>1</v>
@@ -1025,7 +1029,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="n">
@@ -1036,33 +1040,33 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>07/11/23</t>
+          <t>05/03/05</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>00:40</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>C_Mar30-21_0803</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ3" s="2" t="n">
-        <v>45118.47638888889</v>
+        <v>38475.02777777778</v>
       </c>
       <c r="AK3" t="n">
-        <v>19549.47638888889</v>
+        <v>12906.02777777778</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230711-3.dat</t>
+          <t>0-0  0  (0)JUNK-230711-2.dat</t>
         </is>
       </c>
       <c r="AM3" t="n">
@@ -1081,7 +1085,7 @@
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT3" t="n">
@@ -1094,7 +1098,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.1024901557872585</v>
+        <v>0.1021832377871398</v>
       </c>
       <c r="AX3" t="b">
         <v>1</v>
@@ -1107,31 +1111,31 @@
         <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC3" t="n">
-        <v>2318.482946184605</v>
+        <v>2337.242137365963</v>
       </c>
       <c r="BD3" t="n">
-        <v>625.9874074938627</v>
+        <v>613.6460098039505</v>
       </c>
       <c r="BE3" t="n">
-        <v>2321.05074505298</v>
+        <v>2347.438833542496</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.76264668998045</v>
+        <v>1.018073727744458</v>
       </c>
       <c r="BG3" t="n">
         <v>6</v>
       </c>
       <c r="BH3" t="n">
-        <v>629.8439797191719</v>
+        <v>620.1755171726322</v>
       </c>
       <c r="BI3" t="n">
-        <v>7.962644815356089</v>
+        <v>7.885069222169638</v>
       </c>
       <c r="BJ3" t="n">
-        <v>12.708</v>
+        <v>25</v>
       </c>
       <c r="BK3" t="inlineStr"/>
     </row>
@@ -1186,27 +1190,29 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.8</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>154</v>
+      </c>
       <c r="V4" t="n">
-        <v>2349.22</v>
+        <v>2499.78</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>0.000157</v>
+        <v>0.000296</v>
       </c>
       <c r="Y4" t="n">
         <v>1</v>
@@ -1218,7 +1224,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="n">
@@ -1229,29 +1235,29 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>07/11/23</t>
+          <t>05/03/05</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>01:08</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>C_Mar30-21_0803</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ4" s="2" t="n">
-        <v>45118.48958333334</v>
+        <v>38475.04722222222</v>
       </c>
       <c r="AK4" t="n">
-        <v>19549.48958333333</v>
+        <v>12906.04722222222</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1274,7 +1280,7 @@
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT4" t="n">
@@ -1287,7 +1293,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.1024902917069147</v>
+        <v>0.1021832377871398</v>
       </c>
       <c r="AX4" t="b">
         <v>1</v>
@@ -1300,31 +1306,31 @@
         <v>0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC4" t="n">
-        <v>2317.813272899833</v>
+        <v>2467.109796565895</v>
       </c>
       <c r="BD4" t="n">
-        <v>624.7952733466221</v>
+        <v>613.494734389256</v>
       </c>
       <c r="BE4" t="n">
-        <v>2320.30007647573</v>
+        <v>2478.561610282675</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.036634382037371</v>
+        <v>0.4087221149091577</v>
       </c>
       <c r="BG4" t="n">
         <v>6</v>
       </c>
       <c r="BH4" t="n">
-        <v>628.6517313625498</v>
+        <v>620.1127983011792</v>
       </c>
       <c r="BI4" t="n">
-        <v>7.968265711205735</v>
+        <v>7.871331428172618</v>
       </c>
       <c r="BJ4" t="n">
-        <v>12.701</v>
+        <v>25</v>
       </c>
       <c r="BK4" t="inlineStr"/>
     </row>
@@ -1379,27 +1385,29 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>18.8</v>
+        <v>0.5</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>154</v>
+      </c>
       <c r="V5" t="n">
-        <v>2349.58</v>
+        <v>2352.48</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>0.000154</v>
+        <v>0.000302</v>
       </c>
       <c r="Y5" t="n">
         <v>1</v>
@@ -1411,7 +1419,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
@@ -1422,29 +1430,29 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>07/11/23</t>
+          <t>05/03/05</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>01:25</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>C_Mar30-21_0803</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ5" s="2" t="n">
-        <v>45118.50277777778</v>
+        <v>38475.05902777778</v>
       </c>
       <c r="AK5" t="n">
-        <v>19549.50277777778</v>
+        <v>12906.05902777778</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1467,7 +1475,7 @@
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT5" t="n">
@@ -1480,7 +1488,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.1024877596816598</v>
+        <v>0.1021832377871398</v>
       </c>
       <c r="AX5" t="b">
         <v>1</v>
@@ -1493,31 +1501,31 @@
         <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC5" t="n">
-        <v>2318.49204942937</v>
+        <v>2321.27579739978</v>
       </c>
       <c r="BD5" t="n">
-        <v>623.911556745908</v>
+        <v>613.5183312075363</v>
       </c>
       <c r="BE5" t="n">
-        <v>2319.794356599032</v>
+        <v>2332.110503202297</v>
       </c>
       <c r="BF5" t="n">
-        <v>1.854810050668006</v>
+        <v>0.9339349705993768</v>
       </c>
       <c r="BG5" t="n">
         <v>6</v>
       </c>
       <c r="BH5" t="n">
-        <v>627.7229271050031</v>
+        <v>620.1121311054087</v>
       </c>
       <c r="BI5" t="n">
-        <v>7.966779336874176</v>
+        <v>7.872165325262505</v>
       </c>
       <c r="BJ5" t="n">
-        <v>12.831</v>
+        <v>25</v>
       </c>
       <c r="BK5" t="inlineStr"/>
     </row>
@@ -1572,27 +1580,29 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>18.8</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>154</v>
+      </c>
       <c r="V6" t="n">
-        <v>2349.84</v>
+        <v>2352.12</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>0.000145</v>
+        <v>0.000366</v>
       </c>
       <c r="Y6" t="n">
         <v>1</v>
@@ -1604,7 +1614,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
@@ -1615,29 +1625,29 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>07/11/23</t>
+          <t>05/03/05</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>01:43</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>C_Mar30-21_0803</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ6" s="2" t="n">
-        <v>45118.52291666667</v>
+        <v>38475.07152777778</v>
       </c>
       <c r="AK6" t="n">
-        <v>19549.52291666666</v>
+        <v>12906.07152777778</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1660,7 +1670,7 @@
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT6" t="n">
@@ -1673,7 +1683,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.1024915321803209</v>
+        <v>0.1021832377871398</v>
       </c>
       <c r="AX6" t="b">
         <v>1</v>
@@ -1686,31 +1696,31 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC6" t="n">
-        <v>2316.358936442778</v>
+        <v>2320.411374856924</v>
       </c>
       <c r="BD6" t="n">
-        <v>622.6440593938597</v>
+        <v>613.4014606167043</v>
       </c>
       <c r="BE6" t="n">
-        <v>2319.858243908675</v>
+        <v>2331.540915934725</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.526250188704098</v>
+        <v>0.4926132957438857</v>
       </c>
       <c r="BG6" t="n">
         <v>6</v>
       </c>
       <c r="BH6" t="n">
-        <v>626.5421059045946</v>
+        <v>620.0140927889621</v>
       </c>
       <c r="BI6" t="n">
-        <v>7.97340735366278</v>
+        <v>7.870508134513691</v>
       </c>
       <c r="BJ6" t="n">
-        <v>12.637</v>
+        <v>25</v>
       </c>
       <c r="BK6" t="inlineStr"/>
     </row>
@@ -1728,7 +1738,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>JUNK-230712-1</t>
+          <t>JUNK-230711-7</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -1765,27 +1775,29 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>154</v>
+      </c>
       <c r="V7" t="n">
-        <v>2351.34</v>
+        <v>2352.62</v>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>9.1e-05</v>
+        <v>0.000382</v>
       </c>
       <c r="Y7" t="n">
         <v>1</v>
@@ -1797,7 +1809,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
@@ -1808,33 +1820,33 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>07/12/23</t>
+          <t>05/03/05</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>C_Jul12-23_1307</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ7" s="2" t="n">
-        <v>45119.58055555556</v>
+        <v>38475.08333333334</v>
       </c>
       <c r="AK7" t="n">
-        <v>19550.58055555556</v>
+        <v>12906.08333333333</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230712-1.dat</t>
+          <t>0-0  0  (0)JUNK-230711-7.dat</t>
         </is>
       </c>
       <c r="AM7" t="n">
@@ -1853,7 +1865,7 @@
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT7" t="n">
@@ -1866,7 +1878,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.1024865854988534</v>
+        <v>0.1021832377871398</v>
       </c>
       <c r="AX7" t="b">
         <v>1</v>
@@ -1879,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC7" t="n">
-        <v>2321.162243455201</v>
+        <v>2320.615457328207</v>
       </c>
       <c r="BD7" t="n">
-        <v>622.3095849614763</v>
+        <v>613.4051264746732</v>
       </c>
       <c r="BE7" t="n">
-        <v>2322.410924968034</v>
+        <v>2332.170606633025</v>
       </c>
       <c r="BF7" t="n">
-        <v>1.996796084335382</v>
+        <v>0.6496621886288315</v>
       </c>
       <c r="BG7" t="n">
         <v>6</v>
       </c>
       <c r="BH7" t="n">
-        <v>626.1161592308088</v>
+        <v>620.0427886792914</v>
       </c>
       <c r="BI7" t="n">
-        <v>8.036346246862184</v>
+        <v>7.873528720617554</v>
       </c>
       <c r="BJ7" t="n">
-        <v>12.891</v>
+        <v>25</v>
       </c>
       <c r="BK7" t="inlineStr"/>
     </row>
@@ -1921,7 +1933,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JUNK-230712-2</t>
+          <t>JUNK-230711-8</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -1964,20 +1976,24 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>154</v>
+      </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2351.5</v>
       </c>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="n">
+        <v>0.000328</v>
+      </c>
       <c r="Y8" t="n">
         <v>1</v>
       </c>
@@ -1988,7 +2004,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
@@ -1999,33 +2015,33 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>07/12/23</t>
+          <t>05/03/05</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>02:18</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>C_Jul12-23_1307</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ8" s="2" t="n">
-        <v>45119.60208333333</v>
+        <v>38475.09583333333</v>
       </c>
       <c r="AK8" t="n">
-        <v>19550.60208333334</v>
+        <v>12906.09583333333</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230712-2.dat</t>
+          <t>0-0  0  (0)JUNK-230711-8.dat</t>
         </is>
       </c>
       <c r="AM8" t="n">
@@ -2044,7 +2060,7 @@
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT8" t="n">
@@ -2057,7 +2073,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.1024865854988534</v>
+        <v>0.1021832377871398</v>
       </c>
       <c r="AX8" t="b">
         <v>1</v>
@@ -2070,31 +2086,31 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC8" t="n">
-        <v>2448.076887444617</v>
+        <v>2320.326738966683</v>
       </c>
       <c r="BD8" t="n">
-        <v>624.846306560171</v>
+        <v>613.4143044893256</v>
       </c>
       <c r="BE8" t="n">
-        <v>2331.794941945609</v>
+        <v>2331.231580699019</v>
       </c>
       <c r="BF8" t="n">
-        <v>2.100959028924016</v>
+        <v>0.52429086767348</v>
       </c>
       <c r="BG8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH8" t="n">
-        <v>626.681100900068</v>
+        <v>620.0150664743676</v>
       </c>
       <c r="BI8" t="n">
-        <v>8.036609505300287</v>
+        <v>7.873905293341793</v>
       </c>
       <c r="BJ8" t="n">
-        <v>12.891</v>
+        <v>25</v>
       </c>
       <c r="BK8" t="inlineStr"/>
     </row>
@@ -2112,7 +2128,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>JUNK-230712-3</t>
+          <t>JUNK-230711-9</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -2149,27 +2165,29 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>154</v>
+      </c>
       <c r="V9" t="n">
-        <v>2356.2</v>
+        <v>2355.48</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>0.00012</v>
+        <v>0.000315</v>
       </c>
       <c r="Y9" t="n">
         <v>1</v>
@@ -2181,7 +2199,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
@@ -2192,33 +2210,33 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>07/12/23</t>
+          <t>05/03/05</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>03:11</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>C_Jul12-23_1307</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ9" s="2" t="n">
-        <v>45119.64166666667</v>
+        <v>38475.13263888889</v>
       </c>
       <c r="AK9" t="n">
-        <v>19550.64166666667</v>
+        <v>12906.13263888889</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230712-3.dat</t>
+          <t>0-0  0  (0)JUNK-230711-9.dat</t>
         </is>
       </c>
       <c r="AM9" t="n">
@@ -2237,7 +2255,7 @@
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT9" t="n">
@@ -2250,7 +2268,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.1024868402025152</v>
+        <v>0.1021832377871398</v>
       </c>
       <c r="AX9" t="b">
         <v>1</v>
@@ -2263,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC9" t="n">
-        <v>2327.11667598238</v>
+        <v>2323.754257436717</v>
       </c>
       <c r="BD9" t="n">
-        <v>622.7880326365462</v>
+        <v>613.3642496473107</v>
       </c>
       <c r="BE9" t="n">
-        <v>2326.834478119528</v>
+        <v>2336.25819331588</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.886599099685425</v>
+        <v>0.2642014960342283</v>
       </c>
       <c r="BG9" t="n">
         <v>6</v>
       </c>
       <c r="BH9" t="n">
-        <v>626.4715770776282</v>
+        <v>620.0507208041602</v>
       </c>
       <c r="BI9" t="n">
-        <v>8.045616900834428</v>
+        <v>7.87788867646591</v>
       </c>
       <c r="BJ9" t="n">
-        <v>12.878</v>
+        <v>25</v>
       </c>
       <c r="BK9" t="inlineStr"/>
     </row>
@@ -2305,7 +2323,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>JUNK-230712-4</t>
+          <t>JUNK-230711-10</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -2342,27 +2360,29 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>154</v>
+      </c>
       <c r="V10" t="n">
-        <v>2355.33</v>
+        <v>2351.6</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
-        <v>0.00012</v>
+        <v>0.000285</v>
       </c>
       <c r="Y10" t="n">
         <v>1</v>
@@ -2374,7 +2394,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
@@ -2385,33 +2405,33 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>07/12/23</t>
+          <t>05/03/05</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>C_Jul12-23_1307</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ10" s="2" t="n">
-        <v>45119.66319444445</v>
+        <v>38475.14583333334</v>
       </c>
       <c r="AK10" t="n">
-        <v>19550.66319444445</v>
+        <v>12906.14583333333</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230712-4.dat</t>
+          <t>0-0  0  (0)JUNK-230711-10.dat</t>
         </is>
       </c>
       <c r="AM10" t="n">
@@ -2430,7 +2450,7 @@
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT10" t="n">
@@ -2443,7 +2463,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.1024904081713758</v>
+        <v>0.1021832377871398</v>
       </c>
       <c r="AX10" t="b">
         <v>1</v>
@@ -2456,31 +2476,31 @@
         <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC10" t="n">
-        <v>2324.21607575169</v>
+        <v>2321.137930720643</v>
       </c>
       <c r="BD10" t="n">
-        <v>622.8276698891799</v>
+        <v>613.3843125280437</v>
       </c>
       <c r="BE10" t="n">
-        <v>2326.433179422907</v>
+        <v>2331.083383680198</v>
       </c>
       <c r="BF10" t="n">
-        <v>2.072231111436676</v>
+        <v>0.783924925986794</v>
       </c>
       <c r="BG10" t="n">
         <v>6</v>
       </c>
       <c r="BH10" t="n">
-        <v>626.6549058007691</v>
+        <v>619.9344973357979</v>
       </c>
       <c r="BI10" t="n">
-        <v>8.05576317579035</v>
+        <v>7.87507891795526</v>
       </c>
       <c r="BJ10" t="n">
-        <v>12.695</v>
+        <v>25</v>
       </c>
       <c r="BK10" t="inlineStr"/>
     </row>
@@ -2498,7 +2518,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>JUNK-230713-1</t>
+          <t>JUNK-230712-1</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -2535,27 +2555,29 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>154</v>
+      </c>
       <c r="V11" t="n">
-        <v>2440.4</v>
+        <v>2351.36</v>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>6.7e-05</v>
+        <v>0.00034</v>
       </c>
       <c r="Y11" t="n">
         <v>1</v>
@@ -2567,7 +2589,7 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
@@ -2578,33 +2600,33 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>07/14/23</t>
+          <t>05/03/05</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>08:46</t>
+          <t>21:42</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>C_Jul14-23_0807</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ11" s="2" t="n">
-        <v>45121.36527777778</v>
+        <v>38475.90416666667</v>
       </c>
       <c r="AK11" t="n">
-        <v>19552.36527777778</v>
+        <v>12906.90416666667</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230713-1.dat</t>
+          <t>0-0  0  (0)JUNK-230712-1.dat</t>
         </is>
       </c>
       <c r="AM11" t="n">
@@ -2623,7 +2645,7 @@
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT11" t="n">
@@ -2636,7 +2658,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.1025186411975344</v>
+        <v>0.1021832377871398</v>
       </c>
       <c r="AX11" t="b">
         <v>1</v>
@@ -2649,31 +2671,31 @@
         <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC11" t="n">
-        <v>2409.732857690593</v>
+        <v>2320.347217693007</v>
       </c>
       <c r="BD11" t="n">
-        <v>619.2869748610829</v>
+        <v>614.0152293845219</v>
       </c>
       <c r="BE11" t="n">
-        <v>2407.860039018004</v>
+        <v>2331.14821591435</v>
       </c>
       <c r="BF11" t="n">
-        <v>4.174397410741292</v>
+        <v>0.6792276781797122</v>
       </c>
       <c r="BG11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH11" t="n">
-        <v>622.897520209047</v>
+        <v>620.6093527190712</v>
       </c>
       <c r="BI11" t="n">
-        <v>7.834396762194208</v>
+        <v>7.900854311964755</v>
       </c>
       <c r="BJ11" t="n">
-        <v>11.182</v>
+        <v>25</v>
       </c>
       <c r="BK11" t="inlineStr"/>
     </row>
@@ -2691,7 +2713,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>JUNK-230713-2</t>
+          <t>JUNK-230712-2</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -2728,27 +2750,29 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>154</v>
+      </c>
       <c r="V12" t="n">
-        <v>2441.92</v>
+        <v>2351.37</v>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="n">
-        <v>6.7e-05</v>
+        <v>0.000406</v>
       </c>
       <c r="Y12" t="n">
         <v>1</v>
@@ -2760,7 +2784,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
@@ -2771,33 +2795,33 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>07/14/23</t>
+          <t>07/12/23</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>C_Jul14-23_0807</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ12" s="2" t="n">
-        <v>45121.38055555556</v>
+        <v>45119.48611111111</v>
       </c>
       <c r="AK12" t="n">
-        <v>19552.38055555556</v>
+        <v>19550.48611111111</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230713-2.dat</t>
+          <t>0-0  0  (0)JUNK-230712-2.dat</t>
         </is>
       </c>
       <c r="AM12" t="n">
@@ -2816,7 +2840,7 @@
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT12" t="n">
@@ -2829,7 +2853,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.1025081244211974</v>
+        <v>0.1021832377871398</v>
       </c>
       <c r="AX12" t="b">
         <v>1</v>
@@ -2842,31 +2866,31 @@
         <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC12" t="n">
-        <v>2411.793711979637</v>
+        <v>2320.870590770086</v>
       </c>
       <c r="BD12" t="n">
-        <v>619.9183510563817</v>
+        <v>614.0888838286478</v>
       </c>
       <c r="BE12" t="n">
-        <v>2408.086238300481</v>
+        <v>2331.539805568089</v>
       </c>
       <c r="BF12" t="n">
-        <v>3.664005394377815</v>
+        <v>0.3862630751824976</v>
       </c>
       <c r="BG12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH12" t="n">
-        <v>623.5172037372514</v>
+        <v>620.6827135727397</v>
       </c>
       <c r="BI12" t="n">
-        <v>7.833886886152679</v>
+        <v>7.895332966932318</v>
       </c>
       <c r="BJ12" t="n">
-        <v>11.76</v>
+        <v>25</v>
       </c>
       <c r="BK12" t="inlineStr"/>
     </row>
@@ -2884,7 +2908,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>JUNK-230713-3</t>
+          <t>JUNK-230714-1</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -2921,27 +2945,29 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>154</v>
+      </c>
       <c r="V13" t="n">
-        <v>2441.54</v>
+        <v>2435.79</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
-        <v>5.9e-05</v>
+        <v>6.4e-05</v>
       </c>
       <c r="Y13" t="n">
         <v>1</v>
@@ -2953,7 +2979,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="n">
@@ -2969,28 +2995,28 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>C_Jul14-23_0807</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ13" s="2" t="n">
-        <v>45121.39513888889</v>
+        <v>45121.35</v>
       </c>
       <c r="AK13" t="n">
-        <v>19552.39513888889</v>
+        <v>19552.35</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230713-3.dat</t>
+          <t>0-0  0  (0)JUNK-230714-1.dat</t>
         </is>
       </c>
       <c r="AM13" t="n">
@@ -3009,7 +3035,7 @@
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT13" t="n">
@@ -3022,7 +3048,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.1025029847226419</v>
+        <v>0.1021832377871398</v>
       </c>
       <c r="AX13" t="b">
         <v>1</v>
@@ -3035,31 +3061,31 @@
         <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC13" t="n">
-        <v>2412.255967725086</v>
+        <v>2406.29432004827</v>
       </c>
       <c r="BD13" t="n">
-        <v>620.5364080837318</v>
+        <v>614.2597044732711</v>
       </c>
       <c r="BE13" t="n">
-        <v>2408.419340275841</v>
+        <v>2415.497158515112</v>
       </c>
       <c r="BF13" t="n">
-        <v>3.753230216214726</v>
+        <v>0.9961082799197069</v>
       </c>
       <c r="BG13" t="n">
         <v>7</v>
       </c>
       <c r="BH13" t="n">
-        <v>624.1900476728504</v>
+        <v>620.8255336059389</v>
       </c>
       <c r="BI13" t="n">
-        <v>7.838195764475363</v>
+        <v>7.655181890689259</v>
       </c>
       <c r="BJ13" t="n">
-        <v>12.036</v>
+        <v>25</v>
       </c>
       <c r="BK13" t="inlineStr"/>
     </row>
@@ -3077,7 +3103,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CRM-198-0161-2</t>
+          <t>JUNK-230714-2</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -3096,7 +3122,7 @@
         <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>33.504</v>
+        <v>33</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -3114,27 +3140,29 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>154</v>
+      </c>
       <c r="V14" t="n">
-        <v>2228.49</v>
+        <v>2436.71</v>
       </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="n">
-        <v>0.000292</v>
+        <v>9.6e-05</v>
       </c>
       <c r="Y14" t="n">
         <v>1</v>
@@ -3146,7 +3174,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="n">
@@ -3162,105 +3190,99 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>08:46</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>C_Jul14-23_0807</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ14" s="2" t="n">
-        <v>45121.41180555556</v>
+        <v>45121.36527777778</v>
       </c>
       <c r="AK14" t="n">
-        <v>19552.41180555556</v>
+        <v>19552.36527777778</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>0-0  0  (0)CRM-198-0161-2.dat</t>
+          <t>0-0  0  (0)JUNK-230714-2.dat</t>
         </is>
       </c>
       <c r="AM14" t="n">
         <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>2033.64</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>2200.67</v>
-      </c>
+        <v>2300</v>
+      </c>
+      <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT14" t="n">
-        <v>27028.57100535273</v>
+        <v>26621.98075383954</v>
       </c>
       <c r="AU14" t="n">
-        <v>397.9317942857143</v>
+        <v>391.9457142857143</v>
       </c>
       <c r="AV14" t="n">
-        <v>65.40539808340162</v>
+        <v>64.42150599188913</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.1025289155880388</v>
+        <v>0.1021832377871398</v>
       </c>
       <c r="AX14" t="b">
         <v>1</v>
       </c>
-      <c r="AY14" t="n">
-        <v>0.09824843527556373</v>
-      </c>
+      <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="n">
         <v>0</v>
       </c>
       <c r="BA14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC14" t="n">
-        <v>2208.826342268454</v>
+        <v>2407.350686972336</v>
       </c>
       <c r="BD14" t="n">
-        <v>621.3186681265785</v>
+        <v>614.4975458655526</v>
       </c>
       <c r="BE14" t="n">
-        <v>2200.670000008074</v>
+        <v>2415.557633272548</v>
       </c>
       <c r="BF14" t="n">
-        <v>3.369616032686266</v>
+        <v>0.6118864415744731</v>
       </c>
       <c r="BG14" t="n">
         <v>7</v>
       </c>
       <c r="BH14" t="n">
-        <v>625.0247175952608</v>
+        <v>621.0160513612479</v>
       </c>
       <c r="BI14" t="n">
-        <v>8.076478738873075</v>
+        <v>7.687983433887503</v>
       </c>
       <c r="BJ14" t="n">
-        <v>12.723</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>8.07403921498917e-09</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="BK14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3276,7 +3298,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.1.1</t>
+          <t>JUNK-230714-3</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -3295,7 +3317,7 @@
         <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -3313,27 +3335,29 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>154</v>
+      </c>
       <c r="V15" t="n">
-        <v>2509.19</v>
+        <v>2436.44</v>
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="n">
-        <v>0.000339</v>
+        <v>9.2e-05</v>
       </c>
       <c r="Y15" t="n">
         <v>1</v>
@@ -3345,7 +3369,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="n">
@@ -3361,62 +3385,60 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>09:03</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>C_Jul14-23_0807</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ15" s="2" t="n">
-        <v>45121.42847222222</v>
+        <v>45121.37708333333</v>
       </c>
       <c r="AK15" t="n">
-        <v>19552.42847222222</v>
+        <v>19552.37708333333</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>0-0  0  (0)3.1.1.dat</t>
+          <t>0-0  0  (0)JUNK-230714-3.dat</t>
         </is>
       </c>
       <c r="AM15" t="n">
         <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>2058.524703496296</v>
+        <v>2300</v>
       </c>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="n">
-        <v>0.9802498588077601</v>
+        <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.9012492940388</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>1.020148068387647</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT15" t="n">
-        <v>24201.80068530868</v>
+        <v>26621.98075383954</v>
       </c>
       <c r="AU15" t="n">
-        <v>356.3142857142857</v>
+        <v>391.9457142857143</v>
       </c>
       <c r="AV15" t="n">
-        <v>58.56500544717194</v>
+        <v>64.42150599188913</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.1022520746951538</v>
+        <v>0.1021832377871398</v>
       </c>
       <c r="AX15" t="b">
         <v>1</v>
@@ -3429,31 +3451,31 @@
         <v>0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC15" t="n">
-        <v>2479.332092454826</v>
+        <v>2406.46569020429</v>
       </c>
       <c r="BD15" t="n">
-        <v>620.6572790913608</v>
+        <v>614.5168504271742</v>
       </c>
       <c r="BE15" t="n">
-        <v>2480.023313400275</v>
+        <v>2415.999480906368</v>
       </c>
       <c r="BF15" t="n">
-        <v>3.135790083452299</v>
+        <v>0.9197202285438533</v>
       </c>
       <c r="BG15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH15" t="n">
-        <v>624.314805163979</v>
+        <v>621.099600255662</v>
       </c>
       <c r="BI15" t="n">
-        <v>8.194013460683056</v>
+        <v>7.683479477442792</v>
       </c>
       <c r="BJ15" t="n">
-        <v>13.014</v>
+        <v>25</v>
       </c>
       <c r="BK15" t="inlineStr"/>
     </row>
@@ -3471,7 +3493,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.1.1</t>
+          <t>CRM-198-0161-1</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -3490,7 +3512,7 @@
         <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>33.504</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -3508,27 +3530,29 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>154</v>
+      </c>
       <c r="V16" t="n">
-        <v>2524.71</v>
+        <v>2223.27</v>
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="n">
-        <v>0.000227</v>
+        <v>0.000532</v>
       </c>
       <c r="Y16" t="n">
         <v>1</v>
@@ -3540,7 +3564,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="n">
@@ -3556,101 +3580,105 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>09:23</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>C_Jul14-23_0807</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ16" s="2" t="n">
-        <v>45121.44791666666</v>
+        <v>45121.39097222222</v>
       </c>
       <c r="AK16" t="n">
-        <v>19552.44791666667</v>
+        <v>19552.39097222222</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>0-0  0  (0)4.1.1.dat</t>
+          <t>0-0  0  (0)CRM-198-0161-1.dat</t>
         </is>
       </c>
       <c r="AM16" t="n">
         <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>2058.524703496296</v>
-      </c>
-      <c r="AO16" t="inlineStr"/>
+        <v>2033.64</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>2200.67</v>
+      </c>
       <c r="AP16" t="n">
-        <v>0.9802498588077601</v>
+        <v>0.67</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4.9012492940388</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>1.020148068387647</v>
-      </c>
+        <v>3.8</v>
+      </c>
+      <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT16" t="n">
-        <v>24201.80068530868</v>
+        <v>27028.57100535273</v>
       </c>
       <c r="AU16" t="n">
-        <v>356.3142857142857</v>
+        <v>397.9317942857143</v>
       </c>
       <c r="AV16" t="n">
-        <v>58.56500544717194</v>
+        <v>65.40539808340162</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.1022452614513904</v>
+        <v>0.1022212909380822</v>
       </c>
       <c r="AX16" t="b">
         <v>1</v>
       </c>
-      <c r="AY16" t="inlineStr"/>
+      <c r="AY16" t="n">
+        <v>0.09909396492785429</v>
+      </c>
       <c r="AZ16" t="n">
         <v>0</v>
       </c>
       <c r="BA16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC16" t="n">
-        <v>2493.516441983269</v>
+        <v>2193.490929984053</v>
       </c>
       <c r="BD16" t="n">
-        <v>620.9783050895231</v>
+        <v>614.9709004356462</v>
       </c>
       <c r="BE16" t="n">
-        <v>2496.148955901624</v>
+        <v>2200.67000001299</v>
       </c>
       <c r="BF16" t="n">
-        <v>3.442088354569409</v>
+        <v>1.065737672983451</v>
       </c>
       <c r="BG16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH16" t="n">
-        <v>624.7588490800132</v>
+        <v>621.4352583246998</v>
       </c>
       <c r="BI16" t="n">
-        <v>8.140718326430814</v>
+        <v>7.908053607659515</v>
       </c>
       <c r="BJ16" t="n">
-        <v>13.367</v>
-      </c>
-      <c r="BK16" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1.298985807807185e-08</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3666,7 +3694,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.2.1</t>
+          <t>1.1.1</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -3703,27 +3731,29 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>154</v>
+      </c>
       <c r="V17" t="n">
-        <v>2546.84</v>
+        <v>2458</v>
       </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="n">
-        <v>0.000255</v>
+        <v>0.000274</v>
       </c>
       <c r="Y17" t="n">
         <v>1</v>
@@ -3735,7 +3765,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="n">
@@ -3751,28 +3781,28 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>C_Jul14-23_0807</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ17" s="2" t="n">
-        <v>45121.46180555555</v>
+        <v>45121.40902777778</v>
       </c>
       <c r="AK17" t="n">
-        <v>19552.46180555555</v>
+        <v>19552.40902777778</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>0-0  0  (0)4.2.1.dat</t>
+          <t>0-0  0  (0)1.1.1.dat</t>
         </is>
       </c>
       <c r="AM17" t="n">
@@ -3793,7 +3823,7 @@
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT17" t="n">
@@ -3806,7 +3836,7 @@
         <v>58.56500544717194</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.1022464476021057</v>
+        <v>0.1019569466942922</v>
       </c>
       <c r="AX17" t="b">
         <v>1</v>
@@ -3819,31 +3849,31 @@
         <v>0</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC17" t="n">
-        <v>2513.632430405143</v>
+        <v>2432.145937036448</v>
       </c>
       <c r="BD17" t="n">
-        <v>620.8308970609282</v>
+        <v>614.4647632732904</v>
       </c>
       <c r="BE17" t="n">
-        <v>2517.25589515344</v>
+        <v>2439.828871057648</v>
       </c>
       <c r="BF17" t="n">
-        <v>4.488907730463065</v>
+        <v>0.7175197302424005</v>
       </c>
       <c r="BG17" t="n">
         <v>7</v>
       </c>
       <c r="BH17" t="n">
-        <v>624.565403407675</v>
+        <v>620.7346377293711</v>
       </c>
       <c r="BI17" t="n">
-        <v>8.137289117619103</v>
+        <v>8.015380346749925</v>
       </c>
       <c r="BJ17" t="n">
-        <v>13.306</v>
+        <v>25</v>
       </c>
       <c r="BK17" t="inlineStr"/>
     </row>
@@ -3861,7 +3891,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.1 .1</t>
+          <t>1.2.1</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -3898,27 +3928,29 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U18" t="n">
+        <v>154</v>
+      </c>
       <c r="V18" t="n">
-        <v>2524.67</v>
+        <v>2460.37</v>
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="n">
-        <v>0.000199</v>
+        <v>0.000327</v>
       </c>
       <c r="Y18" t="n">
         <v>1</v>
@@ -3930,7 +3962,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="n">
@@ -3946,28 +3978,28 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:11</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>C_Jul14-23_0807</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ18" s="2" t="n">
-        <v>45121.47569444445</v>
+        <v>45121.42430555556</v>
       </c>
       <c r="AK18" t="n">
-        <v>19552.47569444445</v>
+        <v>19552.42430555556</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>0-0  0  (0)6.1 .1.dat</t>
+          <t>0-0  0  (0)1.2.1.dat</t>
         </is>
       </c>
       <c r="AM18" t="n">
@@ -3988,7 +4020,7 @@
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT18" t="n">
@@ -4001,7 +4033,7 @@
         <v>58.56500544717194</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.1022489632237146</v>
+        <v>0.1019569466942922</v>
       </c>
       <c r="AX18" t="b">
         <v>1</v>
@@ -4014,31 +4046,31 @@
         <v>0</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC18" t="n">
-        <v>2493.412856283732</v>
+        <v>2434.646358064406</v>
       </c>
       <c r="BD18" t="n">
-        <v>620.9882587254737</v>
+        <v>614.4801916679947</v>
       </c>
       <c r="BE18" t="n">
-        <v>2494.031998804909</v>
+        <v>2442.044383067887</v>
       </c>
       <c r="BF18" t="n">
-        <v>2.943015902369289</v>
+        <v>0.8918369103383553</v>
       </c>
       <c r="BG18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH18" t="n">
-        <v>624.6327941722349</v>
+        <v>620.7451857463168</v>
       </c>
       <c r="BI18" t="n">
-        <v>8.120167929592014</v>
+        <v>8.02147487039988</v>
       </c>
       <c r="BJ18" t="n">
-        <v>13.176</v>
+        <v>25</v>
       </c>
       <c r="BK18" t="inlineStr"/>
     </row>
@@ -4056,7 +4088,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9.1 .1</t>
+          <t>3.2.1</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -4093,27 +4125,29 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>154</v>
+      </c>
       <c r="V19" t="n">
-        <v>2492.09</v>
+        <v>2526.24</v>
       </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="n">
-        <v>0.000169</v>
+        <v>0.000146</v>
       </c>
       <c r="Y19" t="n">
         <v>1</v>
@@ -4125,7 +4159,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="n">
@@ -4141,28 +4175,28 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>C_Jul14-23_0807</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ19" s="2" t="n">
-        <v>45121.49027777778</v>
+        <v>45121.43611111111</v>
       </c>
       <c r="AK19" t="n">
-        <v>19552.49027777778</v>
+        <v>19552.43611111111</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>0-0  0  (0)9.1 .1.dat</t>
+          <t>0-0  0  (0)3.2.1.dat</t>
         </is>
       </c>
       <c r="AM19" t="n">
@@ -4183,7 +4217,7 @@
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT19" t="n">
@@ -4196,7 +4230,7 @@
         <v>58.56500544717194</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.1022426037423301</v>
+        <v>0.1019569466942922</v>
       </c>
       <c r="AX19" t="b">
         <v>1</v>
@@ -4209,31 +4243,31 @@
         <v>0</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC19" t="n">
-        <v>2467.786884996508</v>
+        <v>2497.982327256292</v>
       </c>
       <c r="BD19" t="n">
-        <v>621.284044670949</v>
+        <v>614.3131972448484</v>
       </c>
       <c r="BE19" t="n">
-        <v>2464.145245638026</v>
+        <v>2507.921566771327</v>
       </c>
       <c r="BF19" t="n">
-        <v>3.077047180021385</v>
+        <v>1.17991983728483</v>
       </c>
       <c r="BG19" t="n">
         <v>6</v>
       </c>
       <c r="BH19" t="n">
-        <v>624.822435291473</v>
+        <v>620.5907269287987</v>
       </c>
       <c r="BI19" t="n">
-        <v>8.132699534110865</v>
+        <v>7.858280719203851</v>
       </c>
       <c r="BJ19" t="n">
-        <v>13.503</v>
+        <v>25</v>
       </c>
       <c r="BK19" t="inlineStr"/>
     </row>
@@ -4251,7 +4285,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12.1 .1</t>
+          <t>4.1.2</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -4288,27 +4322,29 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>6.9</v>
+        <v>0.5</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U20" t="n">
+        <v>154</v>
+      </c>
       <c r="V20" t="n">
-        <v>2455.35</v>
+        <v>2540.81</v>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="n">
-        <v>0.000192</v>
+        <v>0.000332</v>
       </c>
       <c r="Y20" t="n">
         <v>1</v>
@@ -4320,7 +4356,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="n">
@@ -4336,28 +4372,28 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>C_Jul14-23_0807</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ20" s="2" t="n">
-        <v>45121.52986111111</v>
+        <v>45121.45486111111</v>
       </c>
       <c r="AK20" t="n">
-        <v>19552.52986111111</v>
+        <v>19552.45486111111</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>0-0  0  (0)12.1 .1.dat</t>
+          <t>0-0  0  (0)4.1.2.dat</t>
         </is>
       </c>
       <c r="AM20" t="n">
@@ -4378,7 +4414,7 @@
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT20" t="n">
@@ -4391,7 +4427,7 @@
         <v>58.56500544717194</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.1022452614513904</v>
+        <v>0.1019569466942922</v>
       </c>
       <c r="AX20" t="b">
         <v>1</v>
@@ -4404,31 +4440,31 @@
         <v>0</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC20" t="n">
-        <v>2427.628380668056</v>
+        <v>2511.335886942482</v>
       </c>
       <c r="BD20" t="n">
-        <v>620.9434703972954</v>
+        <v>613.9879655418371</v>
       </c>
       <c r="BE20" t="n">
-        <v>2423.065052769875</v>
+        <v>2521.439506152771</v>
       </c>
       <c r="BF20" t="n">
-        <v>3.740072742778858</v>
+        <v>0.9930233153221074</v>
       </c>
       <c r="BG20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH20" t="n">
-        <v>624.6390535659392</v>
+        <v>620.2429299259661</v>
       </c>
       <c r="BI20" t="n">
-        <v>8.181706173574657</v>
+        <v>7.98593938770907</v>
       </c>
       <c r="BJ20" t="n">
-        <v>13.367</v>
+        <v>25</v>
       </c>
       <c r="BK20" t="inlineStr"/>
     </row>
@@ -4446,7 +4482,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10.1 .1</t>
+          <t>5.1.1</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -4483,27 +4519,29 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U21" t="n">
+        <v>154</v>
+      </c>
       <c r="V21" t="n">
-        <v>2465.57</v>
+        <v>2527.53</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
-        <v>0.000186</v>
+        <v>0.000319</v>
       </c>
       <c r="Y21" t="n">
         <v>1</v>
@@ -4515,7 +4553,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="n">
@@ -4531,28 +4569,28 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>C_Jul14-23_0807</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ21" s="2" t="n">
-        <v>45121.54375</v>
+        <v>45121.46597222222</v>
       </c>
       <c r="AK21" t="n">
-        <v>19552.54375</v>
+        <v>19552.46597222222</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>0-0  0  (0)10.1 .1.dat</t>
+          <t>0-0  0  (0)5.1.1.dat</t>
         </is>
       </c>
       <c r="AM21" t="n">
@@ -4573,7 +4611,7 @@
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT21" t="n">
@@ -4586,7 +4624,7 @@
         <v>58.56500544717194</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.1022427605810688</v>
+        <v>0.1019569466942922</v>
       </c>
       <c r="AX21" t="b">
         <v>1</v>
@@ -4599,31 +4637,31 @@
         <v>0</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC21" t="n">
-        <v>2438.831606872847</v>
+        <v>2498.995065586685</v>
       </c>
       <c r="BD21" t="n">
-        <v>620.8600411221616</v>
+        <v>614.268737632506</v>
       </c>
       <c r="BE21" t="n">
-        <v>2439.319409997562</v>
+        <v>2508.197739937994</v>
       </c>
       <c r="BF21" t="n">
-        <v>2.461954069448617</v>
+        <v>1.137829081128184</v>
       </c>
       <c r="BG21" t="n">
         <v>6</v>
       </c>
       <c r="BH21" t="n">
-        <v>624.6708322954278</v>
+        <v>620.507587064169</v>
       </c>
       <c r="BI21" t="n">
-        <v>8.163666743114831</v>
+        <v>7.973509519143957</v>
       </c>
       <c r="BJ21" t="n">
-        <v>13.495</v>
+        <v>25</v>
       </c>
       <c r="BK21" t="inlineStr"/>
     </row>
@@ -4641,7 +4679,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13.1 .1</t>
+          <t>5.1.2</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -4678,27 +4716,29 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>154</v>
+      </c>
       <c r="V22" t="n">
-        <v>2453.31</v>
+        <v>2527.15</v>
       </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="n">
-        <v>0.00025</v>
+        <v>0.000307</v>
       </c>
       <c r="Y22" t="n">
         <v>1</v>
@@ -4710,7 +4750,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="n">
@@ -4726,28 +4766,28 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>C_Jul14-23_0807</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ22" s="2" t="n">
-        <v>45121.55833333333</v>
+        <v>45121.47777777778</v>
       </c>
       <c r="AK22" t="n">
-        <v>19552.55833333333</v>
+        <v>19552.47777777778</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>0-0  0  (0)13.1 .1.dat</t>
+          <t>0-0  0  (0)5.1.2.dat</t>
         </is>
       </c>
       <c r="AM22" t="n">
@@ -4768,7 +4808,7 @@
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT22" t="n">
@@ -4781,7 +4821,7 @@
         <v>58.56500544717194</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.1022438371465534</v>
+        <v>0.1019569466942922</v>
       </c>
       <c r="AX22" t="b">
         <v>1</v>
@@ -4794,31 +4834,31 @@
         <v>0</v>
       </c>
       <c r="BB22" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC22" t="n">
-        <v>2424.765267391747</v>
+        <v>2498.762848762375</v>
       </c>
       <c r="BD22" t="n">
-        <v>620.7748663860912</v>
+        <v>614.2724093837569</v>
       </c>
       <c r="BE22" t="n">
-        <v>2421.167162235738</v>
+        <v>2507.714816413588</v>
       </c>
       <c r="BF22" t="n">
-        <v>3.64852172538352</v>
+        <v>1.12559626757398</v>
       </c>
       <c r="BG22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH22" t="n">
-        <v>624.5072584869222</v>
+        <v>620.4863144491438</v>
       </c>
       <c r="BI22" t="n">
-        <v>8.182580073682994</v>
+        <v>7.973995112515442</v>
       </c>
       <c r="BJ22" t="n">
-        <v>13.44</v>
+        <v>25</v>
       </c>
       <c r="BK22" t="inlineStr"/>
     </row>
@@ -4836,7 +4876,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15.1.1</t>
+          <t>7.1.1</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -4873,27 +4913,29 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>8.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U23" t="n">
+        <v>154</v>
+      </c>
       <c r="V23" t="n">
-        <v>2447.02</v>
+        <v>2510.16</v>
       </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="n">
-        <v>0.000285</v>
+        <v>0.000231</v>
       </c>
       <c r="Y23" t="n">
         <v>1</v>
@@ -4905,7 +4947,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="n">
@@ -4921,28 +4963,28 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>C_Jul14-23_0807</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ23" s="2" t="n">
-        <v>45121.57361111111</v>
+        <v>45121.48958333334</v>
       </c>
       <c r="AK23" t="n">
-        <v>19552.57361111111</v>
+        <v>19552.48958333333</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>0-0  0  (0)15.1.1.dat</t>
+          <t>0-0  0  (0)7.1.1.dat</t>
         </is>
       </c>
       <c r="AM23" t="n">
@@ -4963,7 +5005,7 @@
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT23" t="n">
@@ -4976,7 +5018,7 @@
         <v>58.56500544717194</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.1022423879865287</v>
+        <v>0.1019569466942922</v>
       </c>
       <c r="AX23" t="b">
         <v>1</v>
@@ -4989,31 +5031,31 @@
         <v>0</v>
       </c>
       <c r="BB23" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC23" t="n">
-        <v>2421.470610067965</v>
+        <v>2483.985757812501</v>
       </c>
       <c r="BD23" t="n">
-        <v>620.9451834345772</v>
+        <v>614.4783610738197</v>
       </c>
       <c r="BE23" t="n">
-        <v>2415.389549284382</v>
+        <v>2492.58457956996</v>
       </c>
       <c r="BF23" t="n">
-        <v>3.798921020112534</v>
+        <v>1.04378132966966</v>
       </c>
       <c r="BG23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH23" t="n">
-        <v>624.5882835541903</v>
+        <v>620.7094617630239</v>
       </c>
       <c r="BI23" t="n">
-        <v>8.235513691456658</v>
+        <v>7.961708757640671</v>
       </c>
       <c r="BJ23" t="n">
-        <v>13.514</v>
+        <v>25</v>
       </c>
       <c r="BK23" t="inlineStr"/>
     </row>
@@ -5031,7 +5073,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NUTS</t>
+          <t>7.1.2</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5050,7 +5092,7 @@
         <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -5068,27 +5110,29 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>8.9</v>
+        <v>0.5</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U24" t="n">
+        <v>154</v>
+      </c>
       <c r="V24" t="n">
-        <v>1829.87</v>
+        <v>2510.47</v>
       </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="n">
-        <v>0.000163</v>
+        <v>0.000208</v>
       </c>
       <c r="Y24" t="n">
         <v>1</v>
@@ -5100,7 +5144,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="n">
@@ -5116,62 +5160,62 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>12:38</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>C_Jul14-23_0807</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ24" s="2" t="n">
-        <v>45121.5875</v>
+        <v>45121.52638888889</v>
       </c>
       <c r="AK24" t="n">
-        <v>19552.5875</v>
+        <v>19552.52638888889</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>0-0  0  (0)NUTS.dat</t>
+          <t>0-0  0  (0)7.1.2.dat</t>
         </is>
       </c>
       <c r="AM24" t="n">
         <v>100</v>
       </c>
       <c r="AN24" t="n">
-        <v>1621.015465206233</v>
+        <v>2058.524703496296</v>
       </c>
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="n">
-        <v>0.009824336152765048</v>
+        <v>0.9802498588077601</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.3438517653467766</v>
+        <v>4.9012492940388</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.017880480116258</v>
+        <v>1.020148068387647</v>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT24" t="n">
-        <v>21781.62061677781</v>
+        <v>24201.80068530868</v>
       </c>
       <c r="AU24" t="n">
-        <v>320.6828571428571</v>
+        <v>356.3142857142857</v>
       </c>
       <c r="AV24" t="n">
-        <v>52.70850490245475</v>
+        <v>58.56500544717194</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.1020129917124124</v>
+        <v>0.1019569466942922</v>
       </c>
       <c r="AX24" t="b">
         <v>1</v>
@@ -5184,31 +5228,31 @@
         <v>0</v>
       </c>
       <c r="BB24" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC24" t="n">
-        <v>1836.666387941777</v>
+        <v>2483.054816922479</v>
       </c>
       <c r="BD24" t="n">
-        <v>621.0293728713079</v>
+        <v>614.4634136171028</v>
       </c>
       <c r="BE24" t="n">
-        <v>1815.096707334843</v>
+        <v>2491.781952715455</v>
       </c>
       <c r="BF24" t="n">
-        <v>3.501339942632596</v>
+        <v>1.067952918046794</v>
       </c>
       <c r="BG24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH24" t="n">
-        <v>623.8785824563397</v>
+        <v>620.7006278748258</v>
       </c>
       <c r="BI24" t="n">
-        <v>8.174338475269369</v>
+        <v>7.961559434005498</v>
       </c>
       <c r="BJ24" t="n">
-        <v>13.403</v>
+        <v>25</v>
       </c>
       <c r="BK24" t="inlineStr"/>
     </row>
@@ -5226,7 +5270,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>JUNK-230714-4</t>
+          <t>8.1.1</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -5245,7 +5289,7 @@
         <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -5263,27 +5307,29 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>8.9</v>
+        <v>0.5</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>2037.68</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="inlineStr"/>
+        <v>2224.3</v>
+      </c>
+      <c r="U25" t="n">
+        <v>154</v>
+      </c>
       <c r="V25" t="n">
-        <v>2442.3</v>
+        <v>2507.03</v>
       </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.000192</v>
       </c>
       <c r="Y25" t="n">
         <v>1</v>
@@ -5295,7 +5341,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>19.9979</v>
+        <v>20</v>
       </c>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="n">
@@ -5311,60 +5357,62 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>14:26</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>C_Jul14-23_0807</t>
+          <t>C_Jan30-23_1301</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023.dbs</t>
+          <t>labdata/R2-CO2/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ25" s="2" t="n">
-        <v>45121.60138888889</v>
+        <v>45121.53819444445</v>
       </c>
       <c r="AK25" t="n">
-        <v>19552.60138888889</v>
+        <v>19552.53819444445</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230714-4.dat</t>
+          <t>0-0  0  (0)8.1.1.dat</t>
         </is>
       </c>
       <c r="AM25" t="n">
         <v>100</v>
       </c>
       <c r="AN25" t="n">
-        <v>2300</v>
+        <v>2058.524703496296</v>
       </c>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="n">
-        <v>1</v>
+        <v>0.9802498588077601</v>
       </c>
       <c r="AQ25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR25" t="inlineStr"/>
+        <v>4.9012492940388</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>1.020148068387647</v>
+      </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>labdata/Furious George/MaMa2023/</t>
+          <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT25" t="n">
-        <v>26621.98075383954</v>
+        <v>24201.80068530868</v>
       </c>
       <c r="AU25" t="n">
-        <v>391.9457142857143</v>
+        <v>356.3142857142857</v>
       </c>
       <c r="AV25" t="n">
-        <v>64.42150599188913</v>
+        <v>58.56500544717194</v>
       </c>
       <c r="AW25" t="n">
-        <v>0.1024793473032732</v>
+        <v>0.1019569466942922</v>
       </c>
       <c r="AX25" t="b">
         <v>1</v>
@@ -5377,31 +5425,31 @@
         <v>0</v>
       </c>
       <c r="BB25" t="n">
-        <v>0.09824843527556373</v>
+        <v>0.09909396492785429</v>
       </c>
       <c r="BC25" t="n">
-        <v>2411.691544624406</v>
+        <v>2480.059257950269</v>
       </c>
       <c r="BD25" t="n">
-        <v>620.8061765099862</v>
+        <v>614.4905812052597</v>
       </c>
       <c r="BE25" t="n">
-        <v>2408.140885406298</v>
+        <v>2487.97244954642</v>
       </c>
       <c r="BF25" t="n">
-        <v>3.726507371479761</v>
+        <v>0.5447744658424529</v>
       </c>
       <c r="BG25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH25" t="n">
-        <v>624.6369606887379</v>
+        <v>620.6873761905739</v>
       </c>
       <c r="BI25" t="n">
-        <v>7.86543407173178</v>
+        <v>7.924992907687701</v>
       </c>
       <c r="BJ25" t="n">
-        <v>13.257</v>
+        <v>25</v>
       </c>
       <c r="BK25" t="inlineStr"/>
     </row>
@@ -5410,7 +5458,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -5419,7 +5467,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>JUNK-230711-1</t>
+          <t>12.2.1</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -5438,7 +5486,7 @@
         <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -5474,11 +5522,11 @@
         <v>154</v>
       </c>
       <c r="V26" t="n">
-        <v>1384.84</v>
+        <v>2453.44</v>
       </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="n">
-        <v>0.000888</v>
+        <v>0.000267</v>
       </c>
       <c r="Y26" t="n">
         <v>1</v>
@@ -5501,12 +5549,12 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>05/02/05</t>
+          <t>07/14/23</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>21:18</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -5520,46 +5568,48 @@
         </is>
       </c>
       <c r="AJ26" s="2" t="n">
-        <v>38474.8875</v>
+        <v>45121.55</v>
       </c>
       <c r="AK26" t="n">
-        <v>12905.8875</v>
+        <v>19552.55</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230711-1.dat</t>
+          <t>0-0  0  (0)12.2.1.dat</t>
         </is>
       </c>
       <c r="AM26" t="n">
         <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>2300</v>
+        <v>2058.524703496296</v>
       </c>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="n">
-        <v>1</v>
+        <v>0.9802498588077601</v>
       </c>
       <c r="AQ26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR26" t="inlineStr"/>
+        <v>4.9012492940388</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>1.020148068387647</v>
+      </c>
       <c r="AS26" t="inlineStr">
         <is>
           <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT26" t="n">
-        <v>26621.98075383954</v>
+        <v>24201.80068530868</v>
       </c>
       <c r="AU26" t="n">
-        <v>391.9457142857143</v>
+        <v>356.3142857142857</v>
       </c>
       <c r="AV26" t="n">
-        <v>64.42150599188913</v>
+        <v>58.56500544717194</v>
       </c>
       <c r="AW26" t="n">
-        <v>0.1021832377871398</v>
+        <v>0.1019569466942922</v>
       </c>
       <c r="AX26" t="b">
         <v>1</v>
@@ -5575,25 +5625,25 @@
         <v>0.09909396492785429</v>
       </c>
       <c r="BC26" t="n">
-        <v>1368.193642590669</v>
+        <v>2428.143251488829</v>
       </c>
       <c r="BD26" t="n">
-        <v>627.0711553480355</v>
+        <v>614.5412900107488</v>
       </c>
       <c r="BE26" t="n">
-        <v>1380.32332640737</v>
+        <v>2435.717706794857</v>
       </c>
       <c r="BF26" t="n">
-        <v>3.432642654938912</v>
+        <v>0.8198453415024231</v>
       </c>
       <c r="BG26" t="n">
         <v>7</v>
       </c>
       <c r="BH26" t="n">
-        <v>633.80252078134</v>
+        <v>620.8145372819973</v>
       </c>
       <c r="BI26" t="n">
-        <v>8.090903210961246</v>
+        <v>8.020956804062385</v>
       </c>
       <c r="BJ26" t="n">
         <v>25</v>
@@ -5605,7 +5655,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -5614,7 +5664,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>JUNK-230711-2</t>
+          <t>11.1.1</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -5633,7 +5683,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -5669,11 +5719,11 @@
         <v>154</v>
       </c>
       <c r="V27" t="n">
-        <v>2366.7</v>
+        <v>2452.55</v>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="n">
-        <v>9.6e-05</v>
+        <v>0.000244</v>
       </c>
       <c r="Y27" t="n">
         <v>1</v>
@@ -5696,12 +5746,12 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>05/03/05</t>
+          <t>07/14/23</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>00:40</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -5715,46 +5765,48 @@
         </is>
       </c>
       <c r="AJ27" s="2" t="n">
-        <v>38475.02777777778</v>
+        <v>45121.56041666667</v>
       </c>
       <c r="AK27" t="n">
-        <v>12906.02777777778</v>
+        <v>19552.56041666667</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230711-2.dat</t>
+          <t>0-0  0  (0)11.1.1.dat</t>
         </is>
       </c>
       <c r="AM27" t="n">
         <v>100</v>
       </c>
       <c r="AN27" t="n">
-        <v>2300</v>
+        <v>2058.524703496296</v>
       </c>
       <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="n">
-        <v>1</v>
+        <v>0.9802498588077601</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR27" t="inlineStr"/>
+        <v>4.9012492940388</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>1.020148068387647</v>
+      </c>
       <c r="AS27" t="inlineStr">
         <is>
           <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT27" t="n">
-        <v>26621.98075383954</v>
+        <v>24201.80068530868</v>
       </c>
       <c r="AU27" t="n">
-        <v>391.9457142857143</v>
+        <v>356.3142857142857</v>
       </c>
       <c r="AV27" t="n">
-        <v>64.42150599188913</v>
+        <v>58.56500544717194</v>
       </c>
       <c r="AW27" t="n">
-        <v>0.1021832377871398</v>
+        <v>0.1019569466942922</v>
       </c>
       <c r="AX27" t="b">
         <v>1</v>
@@ -5770,25 +5822,25 @@
         <v>0.09909396492785429</v>
       </c>
       <c r="BC27" t="n">
-        <v>2337.242137365963</v>
+        <v>2428.650610485528</v>
       </c>
       <c r="BD27" t="n">
-        <v>613.6460098039505</v>
+        <v>614.6256910111229</v>
       </c>
       <c r="BE27" t="n">
-        <v>2347.438833542496</v>
+        <v>2434.076357848965</v>
       </c>
       <c r="BF27" t="n">
-        <v>1.018073727744458</v>
+        <v>0.6064770524141323</v>
       </c>
       <c r="BG27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH27" t="n">
-        <v>620.1755171726322</v>
+        <v>620.7837298485911</v>
       </c>
       <c r="BI27" t="n">
-        <v>7.885069222169638</v>
+        <v>8.017055350454635</v>
       </c>
       <c r="BJ27" t="n">
         <v>25</v>
@@ -5800,7 +5852,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -5809,7 +5861,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>JUNK-230711-4</t>
+          <t>14.1.1</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -5828,7 +5880,7 @@
         <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -5864,11 +5916,11 @@
         <v>154</v>
       </c>
       <c r="V28" t="n">
-        <v>2499.78</v>
+        <v>2434.79</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="n">
-        <v>0.000296</v>
+        <v>0.000325</v>
       </c>
       <c r="Y28" t="n">
         <v>1</v>
@@ -5891,12 +5943,12 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>05/03/05</t>
+          <t>07/14/23</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>01:08</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -5910,46 +5962,48 @@
         </is>
       </c>
       <c r="AJ28" s="2" t="n">
-        <v>38475.04722222222</v>
+        <v>45121.57291666666</v>
       </c>
       <c r="AK28" t="n">
-        <v>12906.04722222222</v>
+        <v>19552.57291666667</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230711-4.dat</t>
+          <t>0-0  0  (0)14.1.1.dat</t>
         </is>
       </c>
       <c r="AM28" t="n">
         <v>100</v>
       </c>
       <c r="AN28" t="n">
-        <v>2300</v>
+        <v>2058.524703496296</v>
       </c>
       <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="n">
-        <v>1</v>
+        <v>0.9802498588077601</v>
       </c>
       <c r="AQ28" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR28" t="inlineStr"/>
+        <v>4.9012492940388</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1.020148068387647</v>
+      </c>
       <c r="AS28" t="inlineStr">
         <is>
           <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT28" t="n">
-        <v>26621.98075383954</v>
+        <v>24201.80068530868</v>
       </c>
       <c r="AU28" t="n">
-        <v>391.9457142857143</v>
+        <v>356.3142857142857</v>
       </c>
       <c r="AV28" t="n">
-        <v>64.42150599188913</v>
+        <v>58.56500544717194</v>
       </c>
       <c r="AW28" t="n">
-        <v>0.1021832377871398</v>
+        <v>0.1019569466942922</v>
       </c>
       <c r="AX28" t="b">
         <v>1</v>
@@ -5965,25 +6019,25 @@
         <v>0.09909396492785429</v>
       </c>
       <c r="BC28" t="n">
-        <v>2467.109796565895</v>
+        <v>2411.023502774985</v>
       </c>
       <c r="BD28" t="n">
-        <v>613.494734389256</v>
+        <v>614.5978533421742</v>
       </c>
       <c r="BE28" t="n">
-        <v>2478.561610282675</v>
+        <v>2417.28065225317</v>
       </c>
       <c r="BF28" t="n">
-        <v>0.4087221149091577</v>
+        <v>0.4837804964116707</v>
       </c>
       <c r="BG28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH28" t="n">
-        <v>620.1127983011792</v>
+        <v>620.8196101533879</v>
       </c>
       <c r="BI28" t="n">
-        <v>7.871331428172618</v>
+        <v>8.075978930560444</v>
       </c>
       <c r="BJ28" t="n">
         <v>25</v>
@@ -5995,7 +6049,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -6004,7 +6058,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>JUNK-230711-5</t>
+          <t>15.2.1</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -6023,7 +6077,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -6059,11 +6113,11 @@
         <v>154</v>
       </c>
       <c r="V29" t="n">
-        <v>2352.48</v>
+        <v>2438.78</v>
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="n">
-        <v>0.000302</v>
+        <v>0.000334</v>
       </c>
       <c r="Y29" t="n">
         <v>1</v>
@@ -6086,12 +6140,12 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>05/03/05</t>
+          <t>07/14/23</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>01:25</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -6105,46 +6159,48 @@
         </is>
       </c>
       <c r="AJ29" s="2" t="n">
-        <v>38475.05902777778</v>
+        <v>45121.58472222222</v>
       </c>
       <c r="AK29" t="n">
-        <v>12906.05902777778</v>
+        <v>19552.58472222222</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230711-5.dat</t>
+          <t>0-0  0  (0)15.2.1.dat</t>
         </is>
       </c>
       <c r="AM29" t="n">
         <v>100</v>
       </c>
       <c r="AN29" t="n">
-        <v>2300</v>
+        <v>2058.524703496296</v>
       </c>
       <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="n">
-        <v>1</v>
+        <v>0.9802498588077601</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR29" t="inlineStr"/>
+        <v>4.9012492940388</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.020148068387647</v>
+      </c>
       <c r="AS29" t="inlineStr">
         <is>
           <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT29" t="n">
-        <v>26621.98075383954</v>
+        <v>24201.80068530868</v>
       </c>
       <c r="AU29" t="n">
-        <v>391.9457142857143</v>
+        <v>356.3142857142857</v>
       </c>
       <c r="AV29" t="n">
-        <v>64.42150599188913</v>
+        <v>58.56500544717194</v>
       </c>
       <c r="AW29" t="n">
-        <v>0.1021832377871398</v>
+        <v>0.1019569466942922</v>
       </c>
       <c r="AX29" t="b">
         <v>1</v>
@@ -6160,25 +6216,25 @@
         <v>0.09909396492785429</v>
       </c>
       <c r="BC29" t="n">
-        <v>2321.27579739978</v>
+        <v>2414.850835961962</v>
       </c>
       <c r="BD29" t="n">
-        <v>613.5183312075363</v>
+        <v>614.6387639368407</v>
       </c>
       <c r="BE29" t="n">
-        <v>2332.110503202297</v>
+        <v>2420.535910009559</v>
       </c>
       <c r="BF29" t="n">
-        <v>0.9339349705993768</v>
+        <v>0.7413425111595467</v>
       </c>
       <c r="BG29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH29" t="n">
-        <v>620.1121311054087</v>
+        <v>620.8227011055114</v>
       </c>
       <c r="BI29" t="n">
-        <v>7.872165325262505</v>
+        <v>8.091244329084617</v>
       </c>
       <c r="BJ29" t="n">
         <v>25</v>
@@ -6190,7 +6246,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -6199,7 +6255,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>JUNK-230711-6</t>
+          <t>2.1.1</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -6218,7 +6274,7 @@
         <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -6254,11 +6310,11 @@
         <v>154</v>
       </c>
       <c r="V30" t="n">
-        <v>2352.12</v>
+        <v>1687.95</v>
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="n">
-        <v>0.000366</v>
+        <v>0.005676</v>
       </c>
       <c r="Y30" t="n">
         <v>1</v>
@@ -6281,12 +6337,12 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>05/03/05</t>
+          <t>07/14/23</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>01:43</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -6300,46 +6356,48 @@
         </is>
       </c>
       <c r="AJ30" s="2" t="n">
-        <v>38475.07152777778</v>
+        <v>45121.59583333333</v>
       </c>
       <c r="AK30" t="n">
-        <v>12906.07152777778</v>
+        <v>19552.59583333333</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230711-6.dat</t>
+          <t>0-0  0  (0)2.1.1.dat</t>
         </is>
       </c>
       <c r="AM30" t="n">
         <v>100</v>
       </c>
       <c r="AN30" t="n">
-        <v>2300</v>
+        <v>2058.524703496296</v>
       </c>
       <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="n">
-        <v>1</v>
+        <v>0.9802498588077601</v>
       </c>
       <c r="AQ30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR30" t="inlineStr"/>
+        <v>4.9012492940388</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>1.020148068387647</v>
+      </c>
       <c r="AS30" t="inlineStr">
         <is>
           <t>labdata/R2-CO2/MaMa2023/</t>
         </is>
       </c>
       <c r="AT30" t="n">
-        <v>26621.98075383954</v>
+        <v>24201.80068530868</v>
       </c>
       <c r="AU30" t="n">
-        <v>391.9457142857143</v>
+        <v>356.3142857142857</v>
       </c>
       <c r="AV30" t="n">
-        <v>64.42150599188913</v>
+        <v>58.56500544717194</v>
       </c>
       <c r="AW30" t="n">
-        <v>0.1021832377871398</v>
+        <v>0.1019569466942922</v>
       </c>
       <c r="AX30" t="b">
         <v>1</v>
@@ -6355,25 +6413,25 @@
         <v>0.09909396492785429</v>
       </c>
       <c r="BC30" t="n">
-        <v>2320.411374856924</v>
+        <v>1701.927032486641</v>
       </c>
       <c r="BD30" t="n">
-        <v>613.4014606167043</v>
+        <v>609.8687292676969</v>
       </c>
       <c r="BE30" t="n">
-        <v>2331.540915934725</v>
+        <v>1694.182873449464</v>
       </c>
       <c r="BF30" t="n">
-        <v>0.4926132957438857</v>
+        <v>1.096862182264101</v>
       </c>
       <c r="BG30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH30" t="n">
-        <v>620.0140927889621</v>
+        <v>615.4846963365495</v>
       </c>
       <c r="BI30" t="n">
-        <v>7.870508134513691</v>
+        <v>8.6839147893476</v>
       </c>
       <c r="BJ30" t="n">
         <v>25</v>
@@ -6385,7 +6443,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -6394,7 +6452,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>JUNK-230711-7</t>
+          <t>JUNK-230714-4</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -6449,11 +6507,11 @@
         <v>154</v>
       </c>
       <c r="V31" t="n">
-        <v>2352.62</v>
+        <v>2437.8</v>
       </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="n">
-        <v>0.000382</v>
+        <v>0.000102</v>
       </c>
       <c r="Y31" t="n">
         <v>1</v>
@@ -6476,12 +6534,12 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>05/03/05</t>
+          <t>07/14/23</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>14:35</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
@@ -6495,14 +6553,14 @@
         </is>
       </c>
       <c r="AJ31" s="2" t="n">
-        <v>38475.08333333334</v>
+        <v>45121.60763888889</v>
       </c>
       <c r="AK31" t="n">
-        <v>12906.08333333333</v>
+        <v>19552.60763888889</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230711-7.dat</t>
+          <t>0-0  0  (0)JUNK-230714-4.dat</t>
         </is>
       </c>
       <c r="AM31" t="n">
@@ -6550,25 +6608,25 @@
         <v>0.09909396492785429</v>
       </c>
       <c r="BC31" t="n">
-        <v>2320.615457328207</v>
+        <v>2408.176533946238</v>
       </c>
       <c r="BD31" t="n">
-        <v>613.4051264746732</v>
+        <v>614.6820857200314</v>
       </c>
       <c r="BE31" t="n">
-        <v>2332.170606633025</v>
+        <v>2417.926378301831</v>
       </c>
       <c r="BF31" t="n">
-        <v>0.6496621886288315</v>
+        <v>1.526658547294559</v>
       </c>
       <c r="BG31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH31" t="n">
-        <v>620.0427886792914</v>
+        <v>621.2817024108112</v>
       </c>
       <c r="BI31" t="n">
-        <v>7.873528720617554</v>
+        <v>7.733042268218944</v>
       </c>
       <c r="BJ31" t="n">
         <v>25</v>
@@ -6580,7 +6638,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -6589,7 +6647,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>JUNK-230711-8</t>
+          <t>JUNK-230711-2</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -6626,29 +6684,27 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0.5</v>
+        <v>18.8</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U32" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="n">
-        <v>2351.5</v>
+        <v>2362.41</v>
       </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="n">
-        <v>0.000328</v>
+        <v>0.000419</v>
       </c>
       <c r="Y32" t="n">
         <v>1</v>
@@ -6660,7 +6716,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="n">
@@ -6671,33 +6727,33 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>05/03/05</t>
+          <t>07/11/23</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>02:18</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Mar30-21_0803</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ32" s="2" t="n">
-        <v>38475.09583333333</v>
+        <v>45118.45972222222</v>
       </c>
       <c r="AK32" t="n">
-        <v>12906.09583333333</v>
+        <v>19549.45972222222</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230711-8.dat</t>
+          <t>0-0  0  (0)JUNK-230711-2.dat</t>
         </is>
       </c>
       <c r="AM32" t="n">
@@ -6716,7 +6772,7 @@
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT32" t="n">
@@ -6729,7 +6785,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW32" t="n">
-        <v>0.1021832377871398</v>
+        <v>0.1024905440021221</v>
       </c>
       <c r="AX32" t="b">
         <v>1</v>
@@ -6742,31 +6798,31 @@
         <v>0</v>
       </c>
       <c r="BB32" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC32" t="n">
-        <v>2320.326738966683</v>
+        <v>2330.243121813092</v>
       </c>
       <c r="BD32" t="n">
-        <v>613.4143044893256</v>
+        <v>626.8897059888659</v>
       </c>
       <c r="BE32" t="n">
-        <v>2331.231580699019</v>
+        <v>2331.447858280764</v>
       </c>
       <c r="BF32" t="n">
-        <v>0.52429086767348</v>
+        <v>2.549386666302247</v>
       </c>
       <c r="BG32" t="n">
         <v>6</v>
       </c>
       <c r="BH32" t="n">
-        <v>620.0150664743676</v>
+        <v>630.6301899906701</v>
       </c>
       <c r="BI32" t="n">
-        <v>7.873905293341793</v>
+        <v>7.971774619930533</v>
       </c>
       <c r="BJ32" t="n">
-        <v>25</v>
+        <v>12.688</v>
       </c>
       <c r="BK32" t="inlineStr"/>
     </row>
@@ -6775,7 +6831,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -6784,7 +6840,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>JUNK-230711-9</t>
+          <t>JUNK-230711-3</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -6821,29 +6877,27 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.5</v>
+        <v>18.8</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U33" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="n">
-        <v>2355.48</v>
+        <v>2350.64</v>
       </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="n">
-        <v>0.000315</v>
+        <v>0.000138</v>
       </c>
       <c r="Y33" t="n">
         <v>1</v>
@@ -6855,7 +6909,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="n">
@@ -6866,33 +6920,33 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>05/03/05</t>
+          <t>07/11/23</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>03:11</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Mar30-21_0803</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ33" s="2" t="n">
-        <v>38475.13263888889</v>
+        <v>45118.47638888889</v>
       </c>
       <c r="AK33" t="n">
-        <v>12906.13263888889</v>
+        <v>19549.47638888889</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230711-9.dat</t>
+          <t>0-0  0  (0)JUNK-230711-3.dat</t>
         </is>
       </c>
       <c r="AM33" t="n">
@@ -6911,7 +6965,7 @@
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT33" t="n">
@@ -6924,7 +6978,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW33" t="n">
-        <v>0.1021832377871398</v>
+        <v>0.1024901557872585</v>
       </c>
       <c r="AX33" t="b">
         <v>1</v>
@@ -6937,31 +6991,31 @@
         <v>0</v>
       </c>
       <c r="BB33" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC33" t="n">
-        <v>2323.754257436717</v>
+        <v>2318.482946184605</v>
       </c>
       <c r="BD33" t="n">
-        <v>613.3642496473107</v>
+        <v>625.9874074938627</v>
       </c>
       <c r="BE33" t="n">
-        <v>2336.25819331588</v>
+        <v>2321.05074505298</v>
       </c>
       <c r="BF33" t="n">
-        <v>0.2642014960342283</v>
+        <v>1.76264668998045</v>
       </c>
       <c r="BG33" t="n">
         <v>6</v>
       </c>
       <c r="BH33" t="n">
-        <v>620.0507208041602</v>
+        <v>629.8439797191719</v>
       </c>
       <c r="BI33" t="n">
-        <v>7.87788867646591</v>
+        <v>7.962644815356089</v>
       </c>
       <c r="BJ33" t="n">
-        <v>25</v>
+        <v>12.708</v>
       </c>
       <c r="BK33" t="inlineStr"/>
     </row>
@@ -6970,7 +7024,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -6979,7 +7033,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>JUNK-230711-10</t>
+          <t>JUNK-230711-4</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -7016,29 +7070,27 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0.5</v>
+        <v>18.8</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U34" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="n">
-        <v>2351.6</v>
+        <v>2349.22</v>
       </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="n">
-        <v>0.000285</v>
+        <v>0.000157</v>
       </c>
       <c r="Y34" t="n">
         <v>1</v>
@@ -7050,7 +7102,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="n">
@@ -7061,33 +7113,33 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>05/03/05</t>
+          <t>07/11/23</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Mar30-21_0803</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ34" s="2" t="n">
-        <v>38475.14583333334</v>
+        <v>45118.48958333334</v>
       </c>
       <c r="AK34" t="n">
-        <v>12906.14583333333</v>
+        <v>19549.48958333333</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230711-10.dat</t>
+          <t>0-0  0  (0)JUNK-230711-4.dat</t>
         </is>
       </c>
       <c r="AM34" t="n">
@@ -7106,7 +7158,7 @@
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT34" t="n">
@@ -7119,7 +7171,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW34" t="n">
-        <v>0.1021832377871398</v>
+        <v>0.1024902917069147</v>
       </c>
       <c r="AX34" t="b">
         <v>1</v>
@@ -7132,31 +7184,31 @@
         <v>0</v>
       </c>
       <c r="BB34" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC34" t="n">
-        <v>2321.137930720643</v>
+        <v>2317.813272899833</v>
       </c>
       <c r="BD34" t="n">
-        <v>613.3843125280437</v>
+        <v>624.7952733466221</v>
       </c>
       <c r="BE34" t="n">
-        <v>2331.083383680198</v>
+        <v>2320.30007647573</v>
       </c>
       <c r="BF34" t="n">
-        <v>0.783924925986794</v>
+        <v>2.036634382037371</v>
       </c>
       <c r="BG34" t="n">
         <v>6</v>
       </c>
       <c r="BH34" t="n">
-        <v>619.9344973357979</v>
+        <v>628.6517313625498</v>
       </c>
       <c r="BI34" t="n">
-        <v>7.87507891795526</v>
+        <v>7.968265711205735</v>
       </c>
       <c r="BJ34" t="n">
-        <v>25</v>
+        <v>12.701</v>
       </c>
       <c r="BK34" t="inlineStr"/>
     </row>
@@ -7165,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -7174,7 +7226,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>JUNK-230712-1</t>
+          <t>JUNK-230711-5</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -7211,29 +7263,27 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0.5</v>
+        <v>18.8</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U35" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="n">
-        <v>2351.36</v>
+        <v>2349.58</v>
       </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="n">
-        <v>0.00034</v>
+        <v>0.000154</v>
       </c>
       <c r="Y35" t="n">
         <v>1</v>
@@ -7245,7 +7295,7 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="n">
@@ -7256,33 +7306,33 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>05/03/05</t>
+          <t>07/11/23</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>21:42</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Mar30-21_0803</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ35" s="2" t="n">
-        <v>38475.90416666667</v>
+        <v>45118.50277777778</v>
       </c>
       <c r="AK35" t="n">
-        <v>12906.90416666667</v>
+        <v>19549.50277777778</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230712-1.dat</t>
+          <t>0-0  0  (0)JUNK-230711-5.dat</t>
         </is>
       </c>
       <c r="AM35" t="n">
@@ -7301,7 +7351,7 @@
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT35" t="n">
@@ -7314,7 +7364,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW35" t="n">
-        <v>0.1021832377871398</v>
+        <v>0.1024877596816598</v>
       </c>
       <c r="AX35" t="b">
         <v>1</v>
@@ -7327,31 +7377,31 @@
         <v>0</v>
       </c>
       <c r="BB35" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC35" t="n">
-        <v>2320.347217693007</v>
+        <v>2318.49204942937</v>
       </c>
       <c r="BD35" t="n">
-        <v>614.0152293845219</v>
+        <v>623.911556745908</v>
       </c>
       <c r="BE35" t="n">
-        <v>2331.14821591435</v>
+        <v>2319.794356599032</v>
       </c>
       <c r="BF35" t="n">
-        <v>0.6792276781797122</v>
+        <v>1.854810050668006</v>
       </c>
       <c r="BG35" t="n">
         <v>6</v>
       </c>
       <c r="BH35" t="n">
-        <v>620.6093527190712</v>
+        <v>627.7229271050031</v>
       </c>
       <c r="BI35" t="n">
-        <v>7.900854311964755</v>
+        <v>7.966779336874176</v>
       </c>
       <c r="BJ35" t="n">
-        <v>25</v>
+        <v>12.831</v>
       </c>
       <c r="BK35" t="inlineStr"/>
     </row>
@@ -7360,7 +7410,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -7369,7 +7419,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>JUNK-230712-2</t>
+          <t>JUNK-230711-6</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -7406,29 +7456,27 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.5</v>
+        <v>18.8</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U36" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="n">
-        <v>2351.37</v>
+        <v>2349.84</v>
       </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="n">
-        <v>0.000406</v>
+        <v>0.000145</v>
       </c>
       <c r="Y36" t="n">
         <v>1</v>
@@ -7440,7 +7488,7 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="n">
@@ -7451,33 +7499,33 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>07/12/23</t>
+          <t>07/11/23</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Mar30-21_0803</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ36" s="2" t="n">
-        <v>45119.48611111111</v>
+        <v>45118.52291666667</v>
       </c>
       <c r="AK36" t="n">
-        <v>19550.48611111111</v>
+        <v>19549.52291666666</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230712-2.dat</t>
+          <t>0-0  0  (0)JUNK-230711-6.dat</t>
         </is>
       </c>
       <c r="AM36" t="n">
@@ -7496,7 +7544,7 @@
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT36" t="n">
@@ -7509,7 +7557,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW36" t="n">
-        <v>0.1021832377871398</v>
+        <v>0.1024915321803209</v>
       </c>
       <c r="AX36" t="b">
         <v>1</v>
@@ -7522,31 +7570,31 @@
         <v>0</v>
       </c>
       <c r="BB36" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC36" t="n">
-        <v>2320.870590770086</v>
+        <v>2316.358936442778</v>
       </c>
       <c r="BD36" t="n">
-        <v>614.0888838286478</v>
+        <v>622.6440593938597</v>
       </c>
       <c r="BE36" t="n">
-        <v>2331.539805568089</v>
+        <v>2319.858243908675</v>
       </c>
       <c r="BF36" t="n">
-        <v>0.3862630751824976</v>
+        <v>1.526250188704098</v>
       </c>
       <c r="BG36" t="n">
         <v>6</v>
       </c>
       <c r="BH36" t="n">
-        <v>620.6827135727397</v>
+        <v>626.5421059045946</v>
       </c>
       <c r="BI36" t="n">
-        <v>7.895332966932318</v>
+        <v>7.97340735366278</v>
       </c>
       <c r="BJ36" t="n">
-        <v>25</v>
+        <v>12.637</v>
       </c>
       <c r="BK36" t="inlineStr"/>
     </row>
@@ -7555,7 +7603,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -7564,7 +7612,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>JUNK-230714-1</t>
+          <t>JUNK-230712-1</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -7601,29 +7649,27 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U37" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="n">
-        <v>2435.79</v>
+        <v>2351.34</v>
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="n">
-        <v>6.4e-05</v>
+        <v>9.1e-05</v>
       </c>
       <c r="Y37" t="n">
         <v>1</v>
@@ -7635,7 +7681,7 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="n">
@@ -7646,33 +7692,33 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>07/14/23</t>
+          <t>07/12/23</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul12-23_1307</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ37" s="2" t="n">
-        <v>45121.35</v>
+        <v>45119.58055555556</v>
       </c>
       <c r="AK37" t="n">
-        <v>19552.35</v>
+        <v>19550.58055555556</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230714-1.dat</t>
+          <t>0-0  0  (0)JUNK-230712-1.dat</t>
         </is>
       </c>
       <c r="AM37" t="n">
@@ -7691,7 +7737,7 @@
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT37" t="n">
@@ -7704,7 +7750,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW37" t="n">
-        <v>0.1021832377871398</v>
+        <v>0.1024865854988534</v>
       </c>
       <c r="AX37" t="b">
         <v>1</v>
@@ -7717,31 +7763,31 @@
         <v>0</v>
       </c>
       <c r="BB37" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC37" t="n">
-        <v>2406.29432004827</v>
+        <v>2321.162243455201</v>
       </c>
       <c r="BD37" t="n">
-        <v>614.2597044732711</v>
+        <v>622.3095849614763</v>
       </c>
       <c r="BE37" t="n">
-        <v>2415.497158515112</v>
+        <v>2322.410924968034</v>
       </c>
       <c r="BF37" t="n">
-        <v>0.9961082799197069</v>
+        <v>1.996796084335382</v>
       </c>
       <c r="BG37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH37" t="n">
-        <v>620.8255336059389</v>
+        <v>626.1161592308088</v>
       </c>
       <c r="BI37" t="n">
-        <v>7.655181890689259</v>
+        <v>8.036346246862184</v>
       </c>
       <c r="BJ37" t="n">
-        <v>25</v>
+        <v>12.891</v>
       </c>
       <c r="BK37" t="inlineStr"/>
     </row>
@@ -7750,7 +7796,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -7759,7 +7805,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>JUNK-230714-2</t>
+          <t>JUNK-230712-2</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -7802,24 +7848,20 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U38" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="n">
-        <v>2436.71</v>
+        <v>0</v>
       </c>
       <c r="W38" t="inlineStr"/>
-      <c r="X38" t="n">
-        <v>9.6e-05</v>
-      </c>
+      <c r="X38" t="inlineStr"/>
       <c r="Y38" t="n">
         <v>1</v>
       </c>
@@ -7830,7 +7872,7 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="n">
@@ -7841,33 +7883,33 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>07/14/23</t>
+          <t>07/12/23</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>08:46</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul12-23_1307</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ38" s="2" t="n">
-        <v>45121.36527777778</v>
+        <v>45119.60208333333</v>
       </c>
       <c r="AK38" t="n">
-        <v>19552.36527777778</v>
+        <v>19550.60208333334</v>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230714-2.dat</t>
+          <t>0-0  0  (0)JUNK-230712-2.dat</t>
         </is>
       </c>
       <c r="AM38" t="n">
@@ -7886,7 +7928,7 @@
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT38" t="n">
@@ -7899,7 +7941,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW38" t="n">
-        <v>0.1021832377871398</v>
+        <v>0.1024865854988534</v>
       </c>
       <c r="AX38" t="b">
         <v>1</v>
@@ -7912,31 +7954,31 @@
         <v>0</v>
       </c>
       <c r="BB38" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC38" t="n">
-        <v>2407.350686972336</v>
+        <v>2448.076887444617</v>
       </c>
       <c r="BD38" t="n">
-        <v>614.4975458655526</v>
+        <v>624.846306560171</v>
       </c>
       <c r="BE38" t="n">
-        <v>2415.557633272548</v>
+        <v>2331.794941945609</v>
       </c>
       <c r="BF38" t="n">
-        <v>0.6118864415744731</v>
+        <v>2.100959028924016</v>
       </c>
       <c r="BG38" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH38" t="n">
-        <v>621.0160513612479</v>
+        <v>626.681100900068</v>
       </c>
       <c r="BI38" t="n">
-        <v>7.687983433887503</v>
+        <v>8.036609505300287</v>
       </c>
       <c r="BJ38" t="n">
-        <v>25</v>
+        <v>12.891</v>
       </c>
       <c r="BK38" t="inlineStr"/>
     </row>
@@ -7945,7 +7987,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -7954,7 +7996,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>JUNK-230714-3</t>
+          <t>JUNK-230712-3</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -7991,29 +8033,27 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U39" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="n">
-        <v>2436.44</v>
+        <v>2356.2</v>
       </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="n">
-        <v>9.2e-05</v>
+        <v>0.00012</v>
       </c>
       <c r="Y39" t="n">
         <v>1</v>
@@ -8025,7 +8065,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="n">
@@ -8036,33 +8076,33 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>07/14/23</t>
+          <t>07/12/23</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul12-23_1307</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ39" s="2" t="n">
-        <v>45121.37708333333</v>
+        <v>45119.64166666667</v>
       </c>
       <c r="AK39" t="n">
-        <v>19552.37708333333</v>
+        <v>19550.64166666667</v>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>0-0  0  (0)JUNK-230714-3.dat</t>
+          <t>0-0  0  (0)JUNK-230712-3.dat</t>
         </is>
       </c>
       <c r="AM39" t="n">
@@ -8081,7 +8121,7 @@
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT39" t="n">
@@ -8094,7 +8134,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW39" t="n">
-        <v>0.1021832377871398</v>
+        <v>0.1024868402025152</v>
       </c>
       <c r="AX39" t="b">
         <v>1</v>
@@ -8107,31 +8147,31 @@
         <v>0</v>
       </c>
       <c r="BB39" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC39" t="n">
-        <v>2406.46569020429</v>
+        <v>2327.11667598238</v>
       </c>
       <c r="BD39" t="n">
-        <v>614.5168504271742</v>
+        <v>622.7880326365462</v>
       </c>
       <c r="BE39" t="n">
-        <v>2415.999480906368</v>
+        <v>2326.834478119528</v>
       </c>
       <c r="BF39" t="n">
-        <v>0.9197202285438533</v>
+        <v>1.886599099685425</v>
       </c>
       <c r="BG39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH39" t="n">
-        <v>621.099600255662</v>
+        <v>626.4715770776282</v>
       </c>
       <c r="BI39" t="n">
-        <v>7.683479477442792</v>
+        <v>8.045616900834428</v>
       </c>
       <c r="BJ39" t="n">
-        <v>25</v>
+        <v>12.878</v>
       </c>
       <c r="BK39" t="inlineStr"/>
     </row>
@@ -8140,7 +8180,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -8149,7 +8189,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CRM-198-0161-1</t>
+          <t>JUNK-230712-4</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -8168,7 +8208,7 @@
         <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>33.504</v>
+        <v>33</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -8186,29 +8226,27 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U40" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="n">
-        <v>2223.27</v>
+        <v>2355.33</v>
       </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="n">
-        <v>0.000532</v>
+        <v>0.00012</v>
       </c>
       <c r="Y40" t="n">
         <v>1</v>
@@ -8220,7 +8258,7 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="n">
@@ -8231,117 +8269,111 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>07/14/23</t>
+          <t>07/12/23</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>09:23</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul12-23_1307</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ40" s="2" t="n">
-        <v>45121.39097222222</v>
+        <v>45119.66319444445</v>
       </c>
       <c r="AK40" t="n">
-        <v>19552.39097222222</v>
+        <v>19550.66319444445</v>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
-          <t>0-0  0  (0)CRM-198-0161-1.dat</t>
+          <t>0-0  0  (0)JUNK-230712-4.dat</t>
         </is>
       </c>
       <c r="AM40" t="n">
         <v>100</v>
       </c>
       <c r="AN40" t="n">
-        <v>2033.64</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>2200.67</v>
-      </c>
+        <v>2300</v>
+      </c>
+      <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ40" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT40" t="n">
-        <v>27028.57100535273</v>
+        <v>26621.98075383954</v>
       </c>
       <c r="AU40" t="n">
-        <v>397.9317942857143</v>
+        <v>391.9457142857143</v>
       </c>
       <c r="AV40" t="n">
-        <v>65.40539808340162</v>
+        <v>64.42150599188913</v>
       </c>
       <c r="AW40" t="n">
-        <v>0.1022212909380822</v>
+        <v>0.1024904081713758</v>
       </c>
       <c r="AX40" t="b">
         <v>1</v>
       </c>
-      <c r="AY40" t="n">
-        <v>0.09909396492785429</v>
-      </c>
+      <c r="AY40" t="inlineStr"/>
       <c r="AZ40" t="n">
         <v>0</v>
       </c>
       <c r="BA40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB40" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC40" t="n">
-        <v>2193.490929984053</v>
+        <v>2324.21607575169</v>
       </c>
       <c r="BD40" t="n">
-        <v>614.9709004356462</v>
+        <v>622.8276698891799</v>
       </c>
       <c r="BE40" t="n">
-        <v>2200.67000001299</v>
+        <v>2326.433179422907</v>
       </c>
       <c r="BF40" t="n">
-        <v>1.065737672983451</v>
+        <v>2.072231111436676</v>
       </c>
       <c r="BG40" t="n">
         <v>6</v>
       </c>
       <c r="BH40" t="n">
-        <v>621.4352583246998</v>
+        <v>626.6549058007691</v>
       </c>
       <c r="BI40" t="n">
-        <v>7.908053607659515</v>
+        <v>8.05576317579035</v>
       </c>
       <c r="BJ40" t="n">
-        <v>25</v>
-      </c>
-      <c r="BK40" t="n">
-        <v>1.298985807807185e-08</v>
-      </c>
+        <v>12.695</v>
+      </c>
+      <c r="BK40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -8350,7 +8382,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.1.1</t>
+          <t>JUNK-230713-1</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -8369,7 +8401,7 @@
         <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -8387,29 +8419,27 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U41" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U41" t="inlineStr"/>
       <c r="V41" t="n">
-        <v>2458</v>
+        <v>2440.4</v>
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="n">
-        <v>0.000274</v>
+        <v>6.7e-05</v>
       </c>
       <c r="Y41" t="n">
         <v>1</v>
@@ -8421,7 +8451,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="n">
@@ -8437,62 +8467,60 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>08:46</t>
         </is>
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul14-23_0807</t>
         </is>
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ41" s="2" t="n">
-        <v>45121.40902777778</v>
+        <v>45121.36527777778</v>
       </c>
       <c r="AK41" t="n">
-        <v>19552.40902777778</v>
+        <v>19552.36527777778</v>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
-          <t>0-0  0  (0)1.1.1.dat</t>
+          <t>0-0  0  (0)JUNK-230713-1.dat</t>
         </is>
       </c>
       <c r="AM41" t="n">
         <v>100</v>
       </c>
       <c r="AN41" t="n">
-        <v>2058.524703496296</v>
+        <v>2300</v>
       </c>
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="n">
-        <v>0.9802498588077601</v>
+        <v>1</v>
       </c>
       <c r="AQ41" t="n">
-        <v>4.9012492940388</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>1.020148068387647</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT41" t="n">
-        <v>24201.80068530868</v>
+        <v>26621.98075383954</v>
       </c>
       <c r="AU41" t="n">
-        <v>356.3142857142857</v>
+        <v>391.9457142857143</v>
       </c>
       <c r="AV41" t="n">
-        <v>58.56500544717194</v>
+        <v>64.42150599188913</v>
       </c>
       <c r="AW41" t="n">
-        <v>0.1019569466942922</v>
+        <v>0.1025186411975344</v>
       </c>
       <c r="AX41" t="b">
         <v>1</v>
@@ -8505,31 +8533,31 @@
         <v>0</v>
       </c>
       <c r="BB41" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC41" t="n">
-        <v>2432.145937036448</v>
+        <v>2409.732857690593</v>
       </c>
       <c r="BD41" t="n">
-        <v>614.4647632732904</v>
+        <v>619.2869748610829</v>
       </c>
       <c r="BE41" t="n">
-        <v>2439.828871057648</v>
+        <v>2407.860039018004</v>
       </c>
       <c r="BF41" t="n">
-        <v>0.7175197302424005</v>
+        <v>4.174397410741292</v>
       </c>
       <c r="BG41" t="n">
         <v>7</v>
       </c>
       <c r="BH41" t="n">
-        <v>620.7346377293711</v>
+        <v>622.897520209047</v>
       </c>
       <c r="BI41" t="n">
-        <v>8.015380346749925</v>
+        <v>7.834396762194208</v>
       </c>
       <c r="BJ41" t="n">
-        <v>25</v>
+        <v>11.182</v>
       </c>
       <c r="BK41" t="inlineStr"/>
     </row>
@@ -8538,7 +8566,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -8547,7 +8575,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.2.1</t>
+          <t>JUNK-230713-2</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -8566,7 +8594,7 @@
         <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -8584,29 +8612,27 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U42" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="n">
-        <v>2460.37</v>
+        <v>2441.92</v>
       </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="n">
-        <v>0.000327</v>
+        <v>6.7e-05</v>
       </c>
       <c r="Y42" t="n">
         <v>1</v>
@@ -8618,7 +8644,7 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="n">
@@ -8634,62 +8660,60 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul14-23_0807</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ42" s="2" t="n">
-        <v>45121.42430555556</v>
+        <v>45121.38055555556</v>
       </c>
       <c r="AK42" t="n">
-        <v>19552.42430555556</v>
+        <v>19552.38055555556</v>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
-          <t>0-0  0  (0)1.2.1.dat</t>
+          <t>0-0  0  (0)JUNK-230713-2.dat</t>
         </is>
       </c>
       <c r="AM42" t="n">
         <v>100</v>
       </c>
       <c r="AN42" t="n">
-        <v>2058.524703496296</v>
+        <v>2300</v>
       </c>
       <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="n">
-        <v>0.9802498588077601</v>
+        <v>1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>4.9012492940388</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>1.020148068387647</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT42" t="n">
-        <v>24201.80068530868</v>
+        <v>26621.98075383954</v>
       </c>
       <c r="AU42" t="n">
-        <v>356.3142857142857</v>
+        <v>391.9457142857143</v>
       </c>
       <c r="AV42" t="n">
-        <v>58.56500544717194</v>
+        <v>64.42150599188913</v>
       </c>
       <c r="AW42" t="n">
-        <v>0.1019569466942922</v>
+        <v>0.1025081244211974</v>
       </c>
       <c r="AX42" t="b">
         <v>1</v>
@@ -8702,31 +8726,31 @@
         <v>0</v>
       </c>
       <c r="BB42" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC42" t="n">
-        <v>2434.646358064406</v>
+        <v>2411.793711979637</v>
       </c>
       <c r="BD42" t="n">
-        <v>614.4801916679947</v>
+        <v>619.9183510563817</v>
       </c>
       <c r="BE42" t="n">
-        <v>2442.044383067887</v>
+        <v>2408.086238300481</v>
       </c>
       <c r="BF42" t="n">
-        <v>0.8918369103383553</v>
+        <v>3.664005394377815</v>
       </c>
       <c r="BG42" t="n">
         <v>7</v>
       </c>
       <c r="BH42" t="n">
-        <v>620.7451857463168</v>
+        <v>623.5172037372514</v>
       </c>
       <c r="BI42" t="n">
-        <v>8.02147487039988</v>
+        <v>7.833886886152679</v>
       </c>
       <c r="BJ42" t="n">
-        <v>25</v>
+        <v>11.76</v>
       </c>
       <c r="BK42" t="inlineStr"/>
     </row>
@@ -8735,7 +8759,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -8744,7 +8768,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3.2.1</t>
+          <t>JUNK-230713-3</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -8763,7 +8787,7 @@
         <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -8781,29 +8805,27 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U43" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="n">
-        <v>2526.24</v>
+        <v>2441.54</v>
       </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="n">
-        <v>0.000146</v>
+        <v>5.9e-05</v>
       </c>
       <c r="Y43" t="n">
         <v>1</v>
@@ -8815,7 +8837,7 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="n">
@@ -8831,62 +8853,60 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul14-23_0807</t>
         </is>
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ43" s="2" t="n">
-        <v>45121.43611111111</v>
+        <v>45121.39513888889</v>
       </c>
       <c r="AK43" t="n">
-        <v>19552.43611111111</v>
+        <v>19552.39513888889</v>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
-          <t>0-0  0  (0)3.2.1.dat</t>
+          <t>0-0  0  (0)JUNK-230713-3.dat</t>
         </is>
       </c>
       <c r="AM43" t="n">
         <v>100</v>
       </c>
       <c r="AN43" t="n">
-        <v>2058.524703496296</v>
+        <v>2300</v>
       </c>
       <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="n">
-        <v>0.9802498588077601</v>
+        <v>1</v>
       </c>
       <c r="AQ43" t="n">
-        <v>4.9012492940388</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>1.020148068387647</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT43" t="n">
-        <v>24201.80068530868</v>
+        <v>26621.98075383954</v>
       </c>
       <c r="AU43" t="n">
-        <v>356.3142857142857</v>
+        <v>391.9457142857143</v>
       </c>
       <c r="AV43" t="n">
-        <v>58.56500544717194</v>
+        <v>64.42150599188913</v>
       </c>
       <c r="AW43" t="n">
-        <v>0.1019569466942922</v>
+        <v>0.1025029847226419</v>
       </c>
       <c r="AX43" t="b">
         <v>1</v>
@@ -8899,31 +8919,31 @@
         <v>0</v>
       </c>
       <c r="BB43" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC43" t="n">
-        <v>2497.982327256292</v>
+        <v>2412.255967725086</v>
       </c>
       <c r="BD43" t="n">
-        <v>614.3131972448484</v>
+        <v>620.5364080837318</v>
       </c>
       <c r="BE43" t="n">
-        <v>2507.921566771327</v>
+        <v>2408.419340275841</v>
       </c>
       <c r="BF43" t="n">
-        <v>1.17991983728483</v>
+        <v>3.753230216214726</v>
       </c>
       <c r="BG43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH43" t="n">
-        <v>620.5907269287987</v>
+        <v>624.1900476728504</v>
       </c>
       <c r="BI43" t="n">
-        <v>7.858280719203851</v>
+        <v>7.838195764475363</v>
       </c>
       <c r="BJ43" t="n">
-        <v>25</v>
+        <v>12.036</v>
       </c>
       <c r="BK43" t="inlineStr"/>
     </row>
@@ -8932,7 +8952,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -8941,7 +8961,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4.1.2</t>
+          <t>CRM-198-0161-2</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -8960,7 +8980,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>30</v>
+        <v>33.504</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -8978,29 +8998,27 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U44" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="n">
-        <v>2540.81</v>
+        <v>2228.49</v>
       </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="n">
-        <v>0.000332</v>
+        <v>0.000292</v>
       </c>
       <c r="Y44" t="n">
         <v>1</v>
@@ -9012,7 +9030,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="n">
@@ -9028,108 +9046,112 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul14-23_0807</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ44" s="2" t="n">
-        <v>45121.45486111111</v>
+        <v>45121.41180555556</v>
       </c>
       <c r="AK44" t="n">
-        <v>19552.45486111111</v>
+        <v>19552.41180555556</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
-          <t>0-0  0  (0)4.1.2.dat</t>
+          <t>0-0  0  (0)CRM-198-0161-2.dat</t>
         </is>
       </c>
       <c r="AM44" t="n">
         <v>100</v>
       </c>
       <c r="AN44" t="n">
-        <v>2058.524703496296</v>
-      </c>
-      <c r="AO44" t="inlineStr"/>
+        <v>2033.64</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>2200.67</v>
+      </c>
       <c r="AP44" t="n">
-        <v>0.9802498588077601</v>
+        <v>0.67</v>
       </c>
       <c r="AQ44" t="n">
-        <v>4.9012492940388</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>1.020148068387647</v>
-      </c>
+        <v>3.8</v>
+      </c>
+      <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT44" t="n">
-        <v>24201.80068530868</v>
+        <v>27028.57100535273</v>
       </c>
       <c r="AU44" t="n">
-        <v>356.3142857142857</v>
+        <v>397.9317942857143</v>
       </c>
       <c r="AV44" t="n">
-        <v>58.56500544717194</v>
+        <v>65.40539808340162</v>
       </c>
       <c r="AW44" t="n">
-        <v>0.1019569466942922</v>
+        <v>0.1025289155880388</v>
       </c>
       <c r="AX44" t="b">
         <v>1</v>
       </c>
-      <c r="AY44" t="inlineStr"/>
+      <c r="AY44" t="n">
+        <v>0.09824843527556373</v>
+      </c>
       <c r="AZ44" t="n">
         <v>0</v>
       </c>
       <c r="BA44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB44" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC44" t="n">
-        <v>2511.335886942482</v>
+        <v>2208.826342268454</v>
       </c>
       <c r="BD44" t="n">
-        <v>613.9879655418371</v>
+        <v>621.3186681265785</v>
       </c>
       <c r="BE44" t="n">
-        <v>2521.439506152771</v>
+        <v>2200.670000008074</v>
       </c>
       <c r="BF44" t="n">
-        <v>0.9930233153221074</v>
+        <v>3.369616032686266</v>
       </c>
       <c r="BG44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH44" t="n">
-        <v>620.2429299259661</v>
+        <v>625.0247175952608</v>
       </c>
       <c r="BI44" t="n">
-        <v>7.98593938770907</v>
+        <v>8.076478738873075</v>
       </c>
       <c r="BJ44" t="n">
-        <v>25</v>
-      </c>
-      <c r="BK44" t="inlineStr"/>
+        <v>12.723</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>8.07403921498917e-09</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -9138,7 +9160,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5.1.1</t>
+          <t>3.1.1</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -9175,29 +9197,27 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U45" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="n">
-        <v>2527.53</v>
+        <v>2509.19</v>
       </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="n">
-        <v>0.000319</v>
+        <v>0.000339</v>
       </c>
       <c r="Y45" t="n">
         <v>1</v>
@@ -9209,7 +9229,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="n">
@@ -9225,28 +9245,28 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul14-23_0807</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ45" s="2" t="n">
-        <v>45121.46597222222</v>
+        <v>45121.42847222222</v>
       </c>
       <c r="AK45" t="n">
-        <v>19552.46597222222</v>
+        <v>19552.42847222222</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
-          <t>0-0  0  (0)5.1.1.dat</t>
+          <t>0-0  0  (0)3.1.1.dat</t>
         </is>
       </c>
       <c r="AM45" t="n">
@@ -9267,7 +9287,7 @@
       </c>
       <c r="AS45" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT45" t="n">
@@ -9280,7 +9300,7 @@
         <v>58.56500544717194</v>
       </c>
       <c r="AW45" t="n">
-        <v>0.1019569466942922</v>
+        <v>0.1022520746951538</v>
       </c>
       <c r="AX45" t="b">
         <v>1</v>
@@ -9293,31 +9313,31 @@
         <v>0</v>
       </c>
       <c r="BB45" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC45" t="n">
-        <v>2498.995065586685</v>
+        <v>2479.332092454826</v>
       </c>
       <c r="BD45" t="n">
-        <v>614.268737632506</v>
+        <v>620.6572790913608</v>
       </c>
       <c r="BE45" t="n">
-        <v>2508.197739937994</v>
+        <v>2480.023313400275</v>
       </c>
       <c r="BF45" t="n">
-        <v>1.137829081128184</v>
+        <v>3.135790083452299</v>
       </c>
       <c r="BG45" t="n">
         <v>6</v>
       </c>
       <c r="BH45" t="n">
-        <v>620.507587064169</v>
+        <v>624.314805163979</v>
       </c>
       <c r="BI45" t="n">
-        <v>7.973509519143957</v>
+        <v>8.194013460683056</v>
       </c>
       <c r="BJ45" t="n">
-        <v>25</v>
+        <v>13.014</v>
       </c>
       <c r="BK45" t="inlineStr"/>
     </row>
@@ -9326,7 +9346,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -9335,7 +9355,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5.1.2</t>
+          <t>4.1.1</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -9372,29 +9392,27 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U46" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U46" t="inlineStr"/>
       <c r="V46" t="n">
-        <v>2527.15</v>
+        <v>2524.71</v>
       </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="n">
-        <v>0.000307</v>
+        <v>0.000227</v>
       </c>
       <c r="Y46" t="n">
         <v>1</v>
@@ -9406,7 +9424,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="n">
@@ -9422,28 +9440,28 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul14-23_0807</t>
         </is>
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ46" s="2" t="n">
-        <v>45121.47777777778</v>
+        <v>45121.44791666666</v>
       </c>
       <c r="AK46" t="n">
-        <v>19552.47777777778</v>
+        <v>19552.44791666667</v>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
-          <t>0-0  0  (0)5.1.2.dat</t>
+          <t>0-0  0  (0)4.1.1.dat</t>
         </is>
       </c>
       <c r="AM46" t="n">
@@ -9464,7 +9482,7 @@
       </c>
       <c r="AS46" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT46" t="n">
@@ -9477,7 +9495,7 @@
         <v>58.56500544717194</v>
       </c>
       <c r="AW46" t="n">
-        <v>0.1019569466942922</v>
+        <v>0.1022452614513904</v>
       </c>
       <c r="AX46" t="b">
         <v>1</v>
@@ -9490,31 +9508,31 @@
         <v>0</v>
       </c>
       <c r="BB46" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC46" t="n">
-        <v>2498.762848762375</v>
+        <v>2493.516441983269</v>
       </c>
       <c r="BD46" t="n">
-        <v>614.2724093837569</v>
+        <v>620.9783050895231</v>
       </c>
       <c r="BE46" t="n">
-        <v>2507.714816413588</v>
+        <v>2496.148955901624</v>
       </c>
       <c r="BF46" t="n">
-        <v>1.12559626757398</v>
+        <v>3.442088354569409</v>
       </c>
       <c r="BG46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH46" t="n">
-        <v>620.4863144491438</v>
+        <v>624.7588490800132</v>
       </c>
       <c r="BI46" t="n">
-        <v>7.973995112515442</v>
+        <v>8.140718326430814</v>
       </c>
       <c r="BJ46" t="n">
-        <v>25</v>
+        <v>13.367</v>
       </c>
       <c r="BK46" t="inlineStr"/>
     </row>
@@ -9523,7 +9541,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -9532,7 +9550,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7.1.1</t>
+          <t>4.2.1</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -9569,29 +9587,27 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U47" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U47" t="inlineStr"/>
       <c r="V47" t="n">
-        <v>2510.16</v>
+        <v>2546.84</v>
       </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="n">
-        <v>0.000231</v>
+        <v>0.000255</v>
       </c>
       <c r="Y47" t="n">
         <v>1</v>
@@ -9603,7 +9619,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="n">
@@ -9619,28 +9635,28 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul14-23_0807</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ47" s="2" t="n">
-        <v>45121.48958333334</v>
+        <v>45121.46180555555</v>
       </c>
       <c r="AK47" t="n">
-        <v>19552.48958333333</v>
+        <v>19552.46180555555</v>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
-          <t>0-0  0  (0)7.1.1.dat</t>
+          <t>0-0  0  (0)4.2.1.dat</t>
         </is>
       </c>
       <c r="AM47" t="n">
@@ -9661,7 +9677,7 @@
       </c>
       <c r="AS47" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT47" t="n">
@@ -9674,7 +9690,7 @@
         <v>58.56500544717194</v>
       </c>
       <c r="AW47" t="n">
-        <v>0.1019569466942922</v>
+        <v>0.1022464476021057</v>
       </c>
       <c r="AX47" t="b">
         <v>1</v>
@@ -9687,31 +9703,31 @@
         <v>0</v>
       </c>
       <c r="BB47" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC47" t="n">
-        <v>2483.985757812501</v>
+        <v>2513.632430405143</v>
       </c>
       <c r="BD47" t="n">
-        <v>614.4783610738197</v>
+        <v>620.8308970609282</v>
       </c>
       <c r="BE47" t="n">
-        <v>2492.58457956996</v>
+        <v>2517.25589515344</v>
       </c>
       <c r="BF47" t="n">
-        <v>1.04378132966966</v>
+        <v>4.488907730463065</v>
       </c>
       <c r="BG47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH47" t="n">
-        <v>620.7094617630239</v>
+        <v>624.565403407675</v>
       </c>
       <c r="BI47" t="n">
-        <v>7.961708757640671</v>
+        <v>8.137289117619103</v>
       </c>
       <c r="BJ47" t="n">
-        <v>25</v>
+        <v>13.306</v>
       </c>
       <c r="BK47" t="inlineStr"/>
     </row>
@@ -9720,7 +9736,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -9729,7 +9745,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7.1.2</t>
+          <t>6.1 .1</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -9766,29 +9782,27 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U48" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U48" t="inlineStr"/>
       <c r="V48" t="n">
-        <v>2510.47</v>
+        <v>2524.67</v>
       </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="n">
-        <v>0.000208</v>
+        <v>0.000199</v>
       </c>
       <c r="Y48" t="n">
         <v>1</v>
@@ -9800,7 +9814,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="n">
@@ -9816,28 +9830,28 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>12:38</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul14-23_0807</t>
         </is>
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ48" s="2" t="n">
-        <v>45121.52638888889</v>
+        <v>45121.47569444445</v>
       </c>
       <c r="AK48" t="n">
-        <v>19552.52638888889</v>
+        <v>19552.47569444445</v>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
-          <t>0-0  0  (0)7.1.2.dat</t>
+          <t>0-0  0  (0)6.1 .1.dat</t>
         </is>
       </c>
       <c r="AM48" t="n">
@@ -9858,7 +9872,7 @@
       </c>
       <c r="AS48" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT48" t="n">
@@ -9871,7 +9885,7 @@
         <v>58.56500544717194</v>
       </c>
       <c r="AW48" t="n">
-        <v>0.1019569466942922</v>
+        <v>0.1022489632237146</v>
       </c>
       <c r="AX48" t="b">
         <v>1</v>
@@ -9884,31 +9898,31 @@
         <v>0</v>
       </c>
       <c r="BB48" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC48" t="n">
-        <v>2483.054816922479</v>
+        <v>2493.412856283732</v>
       </c>
       <c r="BD48" t="n">
-        <v>614.4634136171028</v>
+        <v>620.9882587254737</v>
       </c>
       <c r="BE48" t="n">
-        <v>2491.781952715455</v>
+        <v>2494.031998804909</v>
       </c>
       <c r="BF48" t="n">
-        <v>1.067952918046794</v>
+        <v>2.943015902369289</v>
       </c>
       <c r="BG48" t="n">
         <v>6</v>
       </c>
       <c r="BH48" t="n">
-        <v>620.7006278748258</v>
+        <v>624.6327941722349</v>
       </c>
       <c r="BI48" t="n">
-        <v>7.961559434005498</v>
+        <v>8.120167929592014</v>
       </c>
       <c r="BJ48" t="n">
-        <v>25</v>
+        <v>13.176</v>
       </c>
       <c r="BK48" t="inlineStr"/>
     </row>
@@ -9917,7 +9931,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -9926,7 +9940,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8.1.1</t>
+          <t>9.1 .1</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -9963,29 +9977,27 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>0.5</v>
+        <v>6.4</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U49" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U49" t="inlineStr"/>
       <c r="V49" t="n">
-        <v>2507.03</v>
+        <v>2492.09</v>
       </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="n">
-        <v>0.000192</v>
+        <v>0.000169</v>
       </c>
       <c r="Y49" t="n">
         <v>1</v>
@@ -9997,7 +10009,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="n">
@@ -10013,28 +10025,28 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul14-23_0807</t>
         </is>
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ49" s="2" t="n">
-        <v>45121.53819444445</v>
+        <v>45121.49027777778</v>
       </c>
       <c r="AK49" t="n">
-        <v>19552.53819444445</v>
+        <v>19552.49027777778</v>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
-          <t>0-0  0  (0)8.1.1.dat</t>
+          <t>0-0  0  (0)9.1 .1.dat</t>
         </is>
       </c>
       <c r="AM49" t="n">
@@ -10055,7 +10067,7 @@
       </c>
       <c r="AS49" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT49" t="n">
@@ -10068,7 +10080,7 @@
         <v>58.56500544717194</v>
       </c>
       <c r="AW49" t="n">
-        <v>0.1019569466942922</v>
+        <v>0.1022426037423301</v>
       </c>
       <c r="AX49" t="b">
         <v>1</v>
@@ -10081,31 +10093,31 @@
         <v>0</v>
       </c>
       <c r="BB49" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC49" t="n">
-        <v>2480.059257950269</v>
+        <v>2467.786884996508</v>
       </c>
       <c r="BD49" t="n">
-        <v>614.4905812052597</v>
+        <v>621.284044670949</v>
       </c>
       <c r="BE49" t="n">
-        <v>2487.97244954642</v>
+        <v>2464.145245638026</v>
       </c>
       <c r="BF49" t="n">
-        <v>0.5447744658424529</v>
+        <v>3.077047180021385</v>
       </c>
       <c r="BG49" t="n">
         <v>6</v>
       </c>
       <c r="BH49" t="n">
-        <v>620.6873761905739</v>
+        <v>624.822435291473</v>
       </c>
       <c r="BI49" t="n">
-        <v>7.924992907687701</v>
+        <v>8.132699534110865</v>
       </c>
       <c r="BJ49" t="n">
-        <v>25</v>
+        <v>13.503</v>
       </c>
       <c r="BK49" t="inlineStr"/>
     </row>
@@ -10114,7 +10126,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -10123,7 +10135,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12.2.1</t>
+          <t>12.1 .1</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -10160,29 +10172,27 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>0.5</v>
+        <v>6.9</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U50" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U50" t="inlineStr"/>
       <c r="V50" t="n">
-        <v>2453.44</v>
+        <v>2455.35</v>
       </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="n">
-        <v>0.000267</v>
+        <v>0.000192</v>
       </c>
       <c r="Y50" t="n">
         <v>1</v>
@@ -10194,7 +10204,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="n">
@@ -10210,28 +10220,28 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul14-23_0807</t>
         </is>
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ50" s="2" t="n">
-        <v>45121.55</v>
+        <v>45121.52986111111</v>
       </c>
       <c r="AK50" t="n">
-        <v>19552.55</v>
+        <v>19552.52986111111</v>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
-          <t>0-0  0  (0)12.2.1.dat</t>
+          <t>0-0  0  (0)12.1 .1.dat</t>
         </is>
       </c>
       <c r="AM50" t="n">
@@ -10252,7 +10262,7 @@
       </c>
       <c r="AS50" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT50" t="n">
@@ -10265,7 +10275,7 @@
         <v>58.56500544717194</v>
       </c>
       <c r="AW50" t="n">
-        <v>0.1019569466942922</v>
+        <v>0.1022452614513904</v>
       </c>
       <c r="AX50" t="b">
         <v>1</v>
@@ -10278,31 +10288,31 @@
         <v>0</v>
       </c>
       <c r="BB50" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC50" t="n">
-        <v>2428.143251488829</v>
+        <v>2427.628380668056</v>
       </c>
       <c r="BD50" t="n">
-        <v>614.5412900107488</v>
+        <v>620.9434703972954</v>
       </c>
       <c r="BE50" t="n">
-        <v>2435.717706794857</v>
+        <v>2423.065052769875</v>
       </c>
       <c r="BF50" t="n">
-        <v>0.8198453415024231</v>
+        <v>3.740072742778858</v>
       </c>
       <c r="BG50" t="n">
         <v>7</v>
       </c>
       <c r="BH50" t="n">
-        <v>620.8145372819973</v>
+        <v>624.6390535659392</v>
       </c>
       <c r="BI50" t="n">
-        <v>8.020956804062385</v>
+        <v>8.181706173574657</v>
       </c>
       <c r="BJ50" t="n">
-        <v>25</v>
+        <v>13.367</v>
       </c>
       <c r="BK50" t="inlineStr"/>
     </row>
@@ -10311,7 +10321,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -10320,7 +10330,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>11.1.1</t>
+          <t>10.1 .1</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -10357,29 +10367,27 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U51" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U51" t="inlineStr"/>
       <c r="V51" t="n">
-        <v>2452.55</v>
+        <v>2465.57</v>
       </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="n">
-        <v>0.000244</v>
+        <v>0.000186</v>
       </c>
       <c r="Y51" t="n">
         <v>1</v>
@@ -10391,7 +10399,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="n">
@@ -10407,28 +10415,28 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul14-23_0807</t>
         </is>
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ51" s="2" t="n">
-        <v>45121.56041666667</v>
+        <v>45121.54375</v>
       </c>
       <c r="AK51" t="n">
-        <v>19552.56041666667</v>
+        <v>19552.54375</v>
       </c>
       <c r="AL51" t="inlineStr">
         <is>
-          <t>0-0  0  (0)11.1.1.dat</t>
+          <t>0-0  0  (0)10.1 .1.dat</t>
         </is>
       </c>
       <c r="AM51" t="n">
@@ -10449,7 +10457,7 @@
       </c>
       <c r="AS51" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT51" t="n">
@@ -10462,7 +10470,7 @@
         <v>58.56500544717194</v>
       </c>
       <c r="AW51" t="n">
-        <v>0.1019569466942922</v>
+        <v>0.1022427605810688</v>
       </c>
       <c r="AX51" t="b">
         <v>1</v>
@@ -10475,31 +10483,31 @@
         <v>0</v>
       </c>
       <c r="BB51" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC51" t="n">
-        <v>2428.650610485528</v>
+        <v>2438.831606872847</v>
       </c>
       <c r="BD51" t="n">
-        <v>614.6256910111229</v>
+        <v>620.8600411221616</v>
       </c>
       <c r="BE51" t="n">
-        <v>2434.076357848965</v>
+        <v>2439.319409997562</v>
       </c>
       <c r="BF51" t="n">
-        <v>0.6064770524141323</v>
+        <v>2.461954069448617</v>
       </c>
       <c r="BG51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH51" t="n">
-        <v>620.7837298485911</v>
+        <v>624.6708322954278</v>
       </c>
       <c r="BI51" t="n">
-        <v>8.017055350454635</v>
+        <v>8.163666743114831</v>
       </c>
       <c r="BJ51" t="n">
-        <v>25</v>
+        <v>13.495</v>
       </c>
       <c r="BK51" t="inlineStr"/>
     </row>
@@ -10508,7 +10516,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -10517,7 +10525,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>14.1.1</t>
+          <t>13.1 .1</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -10554,29 +10562,27 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U52" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U52" t="inlineStr"/>
       <c r="V52" t="n">
-        <v>2434.79</v>
+        <v>2453.31</v>
       </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="n">
-        <v>0.000325</v>
+        <v>0.00025</v>
       </c>
       <c r="Y52" t="n">
         <v>1</v>
@@ -10588,7 +10594,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="n">
@@ -10604,28 +10610,28 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul14-23_0807</t>
         </is>
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ52" s="2" t="n">
-        <v>45121.57291666666</v>
+        <v>45121.55833333333</v>
       </c>
       <c r="AK52" t="n">
-        <v>19552.57291666667</v>
+        <v>19552.55833333333</v>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
-          <t>0-0  0  (0)14.1.1.dat</t>
+          <t>0-0  0  (0)13.1 .1.dat</t>
         </is>
       </c>
       <c r="AM52" t="n">
@@ -10646,7 +10652,7 @@
       </c>
       <c r="AS52" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT52" t="n">
@@ -10659,7 +10665,7 @@
         <v>58.56500544717194</v>
       </c>
       <c r="AW52" t="n">
-        <v>0.1019569466942922</v>
+        <v>0.1022438371465534</v>
       </c>
       <c r="AX52" t="b">
         <v>1</v>
@@ -10672,31 +10678,31 @@
         <v>0</v>
       </c>
       <c r="BB52" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC52" t="n">
-        <v>2411.023502774985</v>
+        <v>2424.765267391747</v>
       </c>
       <c r="BD52" t="n">
-        <v>614.5978533421742</v>
+        <v>620.7748663860912</v>
       </c>
       <c r="BE52" t="n">
-        <v>2417.28065225317</v>
+        <v>2421.167162235738</v>
       </c>
       <c r="BF52" t="n">
-        <v>0.4837804964116707</v>
+        <v>3.64852172538352</v>
       </c>
       <c r="BG52" t="n">
         <v>7</v>
       </c>
       <c r="BH52" t="n">
-        <v>620.8196101533879</v>
+        <v>624.5072584869222</v>
       </c>
       <c r="BI52" t="n">
-        <v>8.075978930560444</v>
+        <v>8.182580073682994</v>
       </c>
       <c r="BJ52" t="n">
-        <v>25</v>
+        <v>13.44</v>
       </c>
       <c r="BK52" t="inlineStr"/>
     </row>
@@ -10705,7 +10711,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -10714,7 +10720,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>15.2.1</t>
+          <t>15.1.1</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -10751,29 +10757,27 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>0.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U53" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U53" t="inlineStr"/>
       <c r="V53" t="n">
-        <v>2438.78</v>
+        <v>2447.02</v>
       </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="n">
-        <v>0.000334</v>
+        <v>0.000285</v>
       </c>
       <c r="Y53" t="n">
         <v>1</v>
@@ -10785,7 +10789,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="n">
@@ -10801,28 +10805,28 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul14-23_0807</t>
         </is>
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ53" s="2" t="n">
-        <v>45121.58472222222</v>
+        <v>45121.57361111111</v>
       </c>
       <c r="AK53" t="n">
-        <v>19552.58472222222</v>
+        <v>19552.57361111111</v>
       </c>
       <c r="AL53" t="inlineStr">
         <is>
-          <t>0-0  0  (0)15.2.1.dat</t>
+          <t>0-0  0  (0)15.1.1.dat</t>
         </is>
       </c>
       <c r="AM53" t="n">
@@ -10843,7 +10847,7 @@
       </c>
       <c r="AS53" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT53" t="n">
@@ -10856,7 +10860,7 @@
         <v>58.56500544717194</v>
       </c>
       <c r="AW53" t="n">
-        <v>0.1019569466942922</v>
+        <v>0.1022423879865287</v>
       </c>
       <c r="AX53" t="b">
         <v>1</v>
@@ -10869,31 +10873,31 @@
         <v>0</v>
       </c>
       <c r="BB53" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC53" t="n">
-        <v>2414.850835961962</v>
+        <v>2421.470610067965</v>
       </c>
       <c r="BD53" t="n">
-        <v>614.6387639368407</v>
+        <v>620.9451834345772</v>
       </c>
       <c r="BE53" t="n">
-        <v>2420.535910009559</v>
+        <v>2415.389549284382</v>
       </c>
       <c r="BF53" t="n">
-        <v>0.7413425111595467</v>
+        <v>3.798921020112534</v>
       </c>
       <c r="BG53" t="n">
         <v>7</v>
       </c>
       <c r="BH53" t="n">
-        <v>620.8227011055114</v>
+        <v>624.5882835541903</v>
       </c>
       <c r="BI53" t="n">
-        <v>8.091244329084617</v>
+        <v>8.235513691456658</v>
       </c>
       <c r="BJ53" t="n">
-        <v>25</v>
+        <v>13.514</v>
       </c>
       <c r="BK53" t="inlineStr"/>
     </row>
@@ -10902,7 +10906,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -10911,7 +10915,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2.1.1</t>
+          <t>NUTS</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -10930,7 +10934,7 @@
         <v>4</v>
       </c>
       <c r="J54" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -10948,29 +10952,27 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>0.5</v>
+        <v>8.9</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U54" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U54" t="inlineStr"/>
       <c r="V54" t="n">
-        <v>1687.95</v>
+        <v>1829.87</v>
       </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="n">
-        <v>0.005676</v>
+        <v>0.000163</v>
       </c>
       <c r="Y54" t="n">
         <v>1</v>
@@ -10982,7 +10984,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="n">
@@ -10998,62 +11000,62 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul14-23_0807</t>
         </is>
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ54" s="2" t="n">
-        <v>45121.59583333333</v>
+        <v>45121.5875</v>
       </c>
       <c r="AK54" t="n">
-        <v>19552.59583333333</v>
+        <v>19552.5875</v>
       </c>
       <c r="AL54" t="inlineStr">
         <is>
-          <t>0-0  0  (0)2.1.1.dat</t>
+          <t>0-0  0  (0)NUTS.dat</t>
         </is>
       </c>
       <c r="AM54" t="n">
         <v>100</v>
       </c>
       <c r="AN54" t="n">
-        <v>2058.524703496296</v>
+        <v>1621.015465206233</v>
       </c>
       <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="n">
-        <v>0.9802498588077601</v>
+        <v>0.009824336152765048</v>
       </c>
       <c r="AQ54" t="n">
-        <v>4.9012492940388</v>
+        <v>0.3438517653467766</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.020148068387647</v>
+        <v>1.017880480116258</v>
       </c>
       <c r="AS54" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT54" t="n">
-        <v>24201.80068530868</v>
+        <v>21781.62061677781</v>
       </c>
       <c r="AU54" t="n">
-        <v>356.3142857142857</v>
+        <v>320.6828571428571</v>
       </c>
       <c r="AV54" t="n">
-        <v>58.56500544717194</v>
+        <v>52.70850490245475</v>
       </c>
       <c r="AW54" t="n">
-        <v>0.1019569466942922</v>
+        <v>0.1020129917124124</v>
       </c>
       <c r="AX54" t="b">
         <v>1</v>
@@ -11066,31 +11068,31 @@
         <v>0</v>
       </c>
       <c r="BB54" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC54" t="n">
-        <v>1701.927032486641</v>
+        <v>1836.666387941777</v>
       </c>
       <c r="BD54" t="n">
-        <v>609.8687292676969</v>
+        <v>621.0293728713079</v>
       </c>
       <c r="BE54" t="n">
-        <v>1694.182873449464</v>
+        <v>1815.096707334843</v>
       </c>
       <c r="BF54" t="n">
-        <v>1.096862182264101</v>
+        <v>3.501339942632596</v>
       </c>
       <c r="BG54" t="n">
         <v>7</v>
       </c>
       <c r="BH54" t="n">
-        <v>615.4846963365495</v>
+        <v>623.8785824563397</v>
       </c>
       <c r="BI54" t="n">
-        <v>8.6839147893476</v>
+        <v>8.174338475269369</v>
       </c>
       <c r="BJ54" t="n">
-        <v>25</v>
+        <v>13.403</v>
       </c>
       <c r="BK54" t="inlineStr"/>
     </row>
@@ -11099,7 +11101,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -11145,29 +11147,27 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>0.5</v>
+        <v>8.9</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>2037.68</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>2224.3</v>
-      </c>
-      <c r="U55" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U55" t="inlineStr"/>
       <c r="V55" t="n">
-        <v>2437.8</v>
+        <v>2442.3</v>
       </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="n">
-        <v>0.000102</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="Y55" t="n">
         <v>1</v>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>20</v>
+        <v>19.9979</v>
       </c>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="n">
@@ -11195,24 +11195,24 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>14:35</t>
+          <t>14:26</t>
         </is>
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>C_Jan30-23_1301</t>
+          <t>C_Jul14-23_0807</t>
         </is>
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023.dbs</t>
+          <t>labdata/Furious George/MaMa2023.dbs</t>
         </is>
       </c>
       <c r="AJ55" s="2" t="n">
-        <v>45121.60763888889</v>
+        <v>45121.60138888889</v>
       </c>
       <c r="AK55" t="n">
-        <v>19552.60763888889</v>
+        <v>19552.60138888889</v>
       </c>
       <c r="AL55" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
       <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr">
         <is>
-          <t>labdata/R2-CO2/MaMa2023/</t>
+          <t>labdata/Furious George/MaMa2023/</t>
         </is>
       </c>
       <c r="AT55" t="n">
@@ -11248,7 +11248,7 @@
         <v>64.42150599188913</v>
       </c>
       <c r="AW55" t="n">
-        <v>0.1021832377871398</v>
+        <v>0.1024793473032732</v>
       </c>
       <c r="AX55" t="b">
         <v>1</v>
@@ -11261,31 +11261,31 @@
         <v>0</v>
       </c>
       <c r="BB55" t="n">
-        <v>0.09909396492785429</v>
+        <v>0.09824843527556373</v>
       </c>
       <c r="BC55" t="n">
-        <v>2408.176533946238</v>
+        <v>2411.691544624406</v>
       </c>
       <c r="BD55" t="n">
-        <v>614.6820857200314</v>
+        <v>620.8061765099862</v>
       </c>
       <c r="BE55" t="n">
-        <v>2417.926378301831</v>
+        <v>2408.140885406298</v>
       </c>
       <c r="BF55" t="n">
-        <v>1.526658547294559</v>
+        <v>3.726507371479761</v>
       </c>
       <c r="BG55" t="n">
         <v>7</v>
       </c>
       <c r="BH55" t="n">
-        <v>621.2817024108112</v>
+        <v>624.6369606887379</v>
       </c>
       <c r="BI55" t="n">
-        <v>7.733042268218944</v>
+        <v>7.86543407173178</v>
       </c>
       <c r="BJ55" t="n">
-        <v>25</v>
+        <v>13.257</v>
       </c>
       <c r="BK55" t="inlineStr"/>
     </row>
